--- a/spec/support/roTemplateNotFollowed.xlsx
+++ b/spec/support/roTemplateNotFollowed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhaisajoness/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhaisajoness/Documents/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB640DC7-DFAF-764C-83E7-13C1B11DED93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{68C061C9-E8C1-4C49-AA2E-0ACEE2035174}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-680" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -27,379 +27,379 @@
     <t>Example</t>
   </si>
   <si>
+    <t>BFREGOFF</t>
+  </si>
+  <si>
+    <t>RO00</t>
+  </si>
+  <si>
+    <t>RO01</t>
+  </si>
+  <si>
+    <t>RO02</t>
+  </si>
+  <si>
+    <t>RO04</t>
+  </si>
+  <si>
+    <t>RO05</t>
+  </si>
+  <si>
+    <t>RO06</t>
+  </si>
+  <si>
+    <t>RO07</t>
+  </si>
+  <si>
+    <t>RO08</t>
+  </si>
+  <si>
+    <t>RO09</t>
+  </si>
+  <si>
+    <t>RO10</t>
+  </si>
+  <si>
+    <t>RO11</t>
+  </si>
+  <si>
+    <t>RO13</t>
+  </si>
+  <si>
+    <t>RO14</t>
+  </si>
+  <si>
+    <t>RO15</t>
+  </si>
+  <si>
+    <t>RO16</t>
+  </si>
+  <si>
+    <t>RO17</t>
+  </si>
+  <si>
+    <t>RO18</t>
+  </si>
+  <si>
+    <t>RO19</t>
+  </si>
+  <si>
+    <t>RO20</t>
+  </si>
+  <si>
+    <t>RO21</t>
+  </si>
+  <si>
+    <t>RO22</t>
+  </si>
+  <si>
+    <t>RO23</t>
+  </si>
+  <si>
+    <t>RO25</t>
+  </si>
+  <si>
+    <t>RO26</t>
+  </si>
+  <si>
+    <t>RO27</t>
+  </si>
+  <si>
+    <t>RO28</t>
+  </si>
+  <si>
+    <t>RO29</t>
+  </si>
+  <si>
+    <t>RO30</t>
+  </si>
+  <si>
+    <t>RO31</t>
+  </si>
+  <si>
+    <t>RO33</t>
+  </si>
+  <si>
+    <t>RO34</t>
+  </si>
+  <si>
+    <t>RO35</t>
+  </si>
+  <si>
+    <t>RO36</t>
+  </si>
+  <si>
+    <t>RO37</t>
+  </si>
+  <si>
+    <t>RO38</t>
+  </si>
+  <si>
+    <t>RO39</t>
+  </si>
+  <si>
+    <t>RO40</t>
+  </si>
+  <si>
+    <t>RO41</t>
+  </si>
+  <si>
+    <t>RO42</t>
+  </si>
+  <si>
+    <t>RO43</t>
+  </si>
+  <si>
+    <t>RO44</t>
+  </si>
+  <si>
+    <t>RO45</t>
+  </si>
+  <si>
+    <t>RO46</t>
+  </si>
+  <si>
+    <t>RO47</t>
+  </si>
+  <si>
+    <t>RO48</t>
+  </si>
+  <si>
+    <t>RO49</t>
+  </si>
+  <si>
+    <t>RO50</t>
+  </si>
+  <si>
+    <t>RO51</t>
+  </si>
+  <si>
+    <t>RO52</t>
+  </si>
+  <si>
+    <t>RO54</t>
+  </si>
+  <si>
+    <t>RO55</t>
+  </si>
+  <si>
+    <t>RO58</t>
+  </si>
+  <si>
+    <t>RO59</t>
+  </si>
+  <si>
+    <t>RO60</t>
+  </si>
+  <si>
+    <t>RO62</t>
+  </si>
+  <si>
+    <t>RO63</t>
+  </si>
+  <si>
+    <t>RO73</t>
+  </si>
+  <si>
+    <t>RO77</t>
+  </si>
+  <si>
+    <t>RO City, State</t>
+  </si>
+  <si>
+    <t>Ithaca, NY</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Togus, ME</t>
+  </si>
+  <si>
+    <t>Providence, RI</t>
+  </si>
+  <si>
+    <t>White River Junction, VT</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>Buffalo, NY</t>
+  </si>
+  <si>
+    <t>Hartford, CT</t>
+  </si>
+  <si>
+    <t>Newark, NJ</t>
+  </si>
+  <si>
+    <t>Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>Pittsburgh, PA</t>
+  </si>
+  <si>
+    <t>Baltimore, MD</t>
+  </si>
+  <si>
+    <t>Roanoke, VA</t>
+  </si>
+  <si>
+    <t>Huntington, WV</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>St. Petersburg, FL</t>
+  </si>
+  <si>
+    <t>Winston-Salem, NC</t>
+  </si>
+  <si>
+    <t>Columbia, SC</t>
+  </si>
+  <si>
+    <t>Nashville, TN</t>
+  </si>
+  <si>
+    <t>New Orleans, LA</t>
+  </si>
+  <si>
+    <t>Montgomery, AL</t>
+  </si>
+  <si>
+    <t>Jackson, MS</t>
+  </si>
+  <si>
+    <t>Cleveland, OH</t>
+  </si>
+  <si>
+    <t>Indianapolis, IN</t>
+  </si>
+  <si>
+    <t>Louisville, KY</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Detroit, MI</t>
+  </si>
+  <si>
+    <t>Milwaukee, WI</t>
+  </si>
+  <si>
+    <t>St. Louis, MO</t>
+  </si>
+  <si>
+    <t>Des Moines, IA</t>
+  </si>
+  <si>
+    <t>Lincoln, NE</t>
+  </si>
+  <si>
+    <t>St. Paul, MN</t>
+  </si>
+  <si>
+    <t>Ft. Harrison, MT</t>
+  </si>
+  <si>
+    <t>Fargo, ND</t>
+  </si>
+  <si>
+    <t>Sioux Falls, SD</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>Albuquerque, NM</t>
+  </si>
+  <si>
+    <t>Salt Lake City, UT</t>
+  </si>
+  <si>
+    <t>Cheyenne, WY</t>
+  </si>
+  <si>
+    <t>Oakland, CA</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Phoenix, AZ</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>Boise, ID</t>
+  </si>
+  <si>
+    <t>Portland, OR</t>
+  </si>
+  <si>
+    <t>Waco, TX</t>
+  </si>
+  <si>
+    <t>Little Rock, AR</t>
+  </si>
+  <si>
+    <t>Muskogee, OK</t>
+  </si>
+  <si>
+    <t>Wichita, KS</t>
+  </si>
+  <si>
+    <t>Reno, NV</t>
+  </si>
+  <si>
+    <t>San Juan, PR</t>
+  </si>
+  <si>
+    <t>Manila, PI</t>
+  </si>
+  <si>
+    <t>Honolulu, HI</t>
+  </si>
+  <si>
+    <t>Wilmington, DE</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Anchorage, AK</t>
+  </si>
+  <si>
+    <t>Manchester, NH</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Board Non-Availability Dates and Holidays in Date Range</t>
+  </si>
+  <si>
+    <t>Allocation of Regional Office Video Hearings and Central Office Hearings</t>
+  </si>
+  <si>
+    <t>Number of Hearing Days Allocated in Date Range</t>
+  </si>
+  <si>
+    <t>Central Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des Moines, IA </t>
+  </si>
+  <si>
     <t>Regional Office Non-Availability Dates in Date Range</t>
-  </si>
-  <si>
-    <t>BFREGOFF</t>
-  </si>
-  <si>
-    <t>RO00</t>
-  </si>
-  <si>
-    <t>RO01</t>
-  </si>
-  <si>
-    <t>RO02</t>
-  </si>
-  <si>
-    <t>RO04</t>
-  </si>
-  <si>
-    <t>RO05</t>
-  </si>
-  <si>
-    <t>RO06</t>
-  </si>
-  <si>
-    <t>RO07</t>
-  </si>
-  <si>
-    <t>RO08</t>
-  </si>
-  <si>
-    <t>RO09</t>
-  </si>
-  <si>
-    <t>RO10</t>
-  </si>
-  <si>
-    <t>RO11</t>
-  </si>
-  <si>
-    <t>RO13</t>
-  </si>
-  <si>
-    <t>RO14</t>
-  </si>
-  <si>
-    <t>RO15</t>
-  </si>
-  <si>
-    <t>RO16</t>
-  </si>
-  <si>
-    <t>RO17</t>
-  </si>
-  <si>
-    <t>RO18</t>
-  </si>
-  <si>
-    <t>RO19</t>
-  </si>
-  <si>
-    <t>RO20</t>
-  </si>
-  <si>
-    <t>RO21</t>
-  </si>
-  <si>
-    <t>RO22</t>
-  </si>
-  <si>
-    <t>RO23</t>
-  </si>
-  <si>
-    <t>RO25</t>
-  </si>
-  <si>
-    <t>RO26</t>
-  </si>
-  <si>
-    <t>RO27</t>
-  </si>
-  <si>
-    <t>RO28</t>
-  </si>
-  <si>
-    <t>RO29</t>
-  </si>
-  <si>
-    <t>RO30</t>
-  </si>
-  <si>
-    <t>RO31</t>
-  </si>
-  <si>
-    <t>RO33</t>
-  </si>
-  <si>
-    <t>RO34</t>
-  </si>
-  <si>
-    <t>RO35</t>
-  </si>
-  <si>
-    <t>RO36</t>
-  </si>
-  <si>
-    <t>RO37</t>
-  </si>
-  <si>
-    <t>RO38</t>
-  </si>
-  <si>
-    <t>RO39</t>
-  </si>
-  <si>
-    <t>RO40</t>
-  </si>
-  <si>
-    <t>RO41</t>
-  </si>
-  <si>
-    <t>RO42</t>
-  </si>
-  <si>
-    <t>RO43</t>
-  </si>
-  <si>
-    <t>RO44</t>
-  </si>
-  <si>
-    <t>RO45</t>
-  </si>
-  <si>
-    <t>RO46</t>
-  </si>
-  <si>
-    <t>RO47</t>
-  </si>
-  <si>
-    <t>RO48</t>
-  </si>
-  <si>
-    <t>RO49</t>
-  </si>
-  <si>
-    <t>RO50</t>
-  </si>
-  <si>
-    <t>RO51</t>
-  </si>
-  <si>
-    <t>RO52</t>
-  </si>
-  <si>
-    <t>RO54</t>
-  </si>
-  <si>
-    <t>RO55</t>
-  </si>
-  <si>
-    <t>RO58</t>
-  </si>
-  <si>
-    <t>RO59</t>
-  </si>
-  <si>
-    <t>RO60</t>
-  </si>
-  <si>
-    <t>RO62</t>
-  </si>
-  <si>
-    <t>RO63</t>
-  </si>
-  <si>
-    <t>RO73</t>
-  </si>
-  <si>
-    <t>RO77</t>
-  </si>
-  <si>
-    <t>RO City, State</t>
-  </si>
-  <si>
-    <t>Ithaca, NY</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>Togus, ME</t>
-  </si>
-  <si>
-    <t>Providence, RI</t>
-  </si>
-  <si>
-    <t>White River Junction, VT</t>
-  </si>
-  <si>
-    <t>New York, NY</t>
-  </si>
-  <si>
-    <t>Buffalo, NY</t>
-  </si>
-  <si>
-    <t>Hartford, CT</t>
-  </si>
-  <si>
-    <t>Newark, NJ</t>
-  </si>
-  <si>
-    <t>Philadelphia, PA</t>
-  </si>
-  <si>
-    <t>Pittsburgh, PA</t>
-  </si>
-  <si>
-    <t>Baltimore, MD</t>
-  </si>
-  <si>
-    <t>Roanoke, VA</t>
-  </si>
-  <si>
-    <t>Huntington, WV</t>
-  </si>
-  <si>
-    <t>Atlanta, GA</t>
-  </si>
-  <si>
-    <t>St. Petersburg, FL</t>
-  </si>
-  <si>
-    <t>Winston-Salem, NC</t>
-  </si>
-  <si>
-    <t>Columbia, SC</t>
-  </si>
-  <si>
-    <t>Nashville, TN</t>
-  </si>
-  <si>
-    <t>New Orleans, LA</t>
-  </si>
-  <si>
-    <t>Montgomery, AL</t>
-  </si>
-  <si>
-    <t>Jackson, MS</t>
-  </si>
-  <si>
-    <t>Cleveland, OH</t>
-  </si>
-  <si>
-    <t>Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>Louisville, KY</t>
-  </si>
-  <si>
-    <t>Chicago, IL</t>
-  </si>
-  <si>
-    <t>Detroit, MI</t>
-  </si>
-  <si>
-    <t>Milwaukee, WI</t>
-  </si>
-  <si>
-    <t>St. Louis, MO</t>
-  </si>
-  <si>
-    <t>Des Moines, IA</t>
-  </si>
-  <si>
-    <t>Lincoln, NE</t>
-  </si>
-  <si>
-    <t>St. Paul, MN</t>
-  </si>
-  <si>
-    <t>Ft. Harrison, MT</t>
-  </si>
-  <si>
-    <t>Fargo, ND</t>
-  </si>
-  <si>
-    <t>Sioux Falls, SD</t>
-  </si>
-  <si>
-    <t>Denver, CO</t>
-  </si>
-  <si>
-    <t>Albuquerque, NM</t>
-  </si>
-  <si>
-    <t>Salt Lake City, UT</t>
-  </si>
-  <si>
-    <t>Cheyenne, WY</t>
-  </si>
-  <si>
-    <t>Oakland, CA</t>
-  </si>
-  <si>
-    <t>Los Angeles, CA</t>
-  </si>
-  <si>
-    <t>Phoenix, AZ</t>
-  </si>
-  <si>
-    <t>Seattle, WA</t>
-  </si>
-  <si>
-    <t>Boise, ID</t>
-  </si>
-  <si>
-    <t>Portland, OR</t>
-  </si>
-  <si>
-    <t>Waco, TX</t>
-  </si>
-  <si>
-    <t>Little Rock, AR</t>
-  </si>
-  <si>
-    <t>Muskogee, OK</t>
-  </si>
-  <si>
-    <t>Wichita, KS</t>
-  </si>
-  <si>
-    <t>Reno, NV</t>
-  </si>
-  <si>
-    <t>San Juan, PR</t>
-  </si>
-  <si>
-    <t>Manila, PI</t>
-  </si>
-  <si>
-    <t>Honolulu, HI</t>
-  </si>
-  <si>
-    <t>Wilmington, DE</t>
-  </si>
-  <si>
-    <t>Houston, TX</t>
-  </si>
-  <si>
-    <t>Anchorage, AK</t>
-  </si>
-  <si>
-    <t>Manchester, NH</t>
-  </si>
-  <si>
-    <t>San Diego, CA</t>
-  </si>
-  <si>
-    <t>Dates</t>
-  </si>
-  <si>
-    <t>Board Non-Availability Dates and Holidays in Date Range</t>
-  </si>
-  <si>
-    <t>Allocation of Regional Office Video Hearings and Central Office Hearings</t>
-  </si>
-  <si>
-    <t>Number of Hearing Days Allocated in Date Range</t>
-  </si>
-  <si>
-    <t>Central Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des Moines, IA </t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -729,17 +729,6 @@
       </right>
       <top style="thin">
         <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1005,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,16 +1049,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,7 +1072,7 @@
     <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,26 +1090,26 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,10 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2332,7 +2320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2351,20 +2341,20 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
+      <c r="C1" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -2413,365 +2403,365 @@
     </row>
     <row r="2" spans="1:59" ht="39" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BF2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BG2" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="34" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AR3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AS3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AT3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BB3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BC3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="BF3" s="12" t="s">
+      <c r="BG3" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="BG3" s="12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="32" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="16">
         <v>43466</v>
@@ -3308,7 +3298,7 @@
         <v>43576</v>
       </c>
       <c r="C7" s="21">
-        <v>43177</v>
+        <v>43218</v>
       </c>
       <c r="D7" s="22">
         <v>43101</v>
@@ -3546,11 +3536,11 @@
     </row>
     <row r="9" spans="1:59" ht="17" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31">
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30">
         <v>43116</v>
       </c>
       <c r="G9" s="28"/>
@@ -3609,10 +3599,10 @@
     </row>
     <row r="10" spans="1:59" ht="17" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="22">
         <v>43245</v>
       </c>
@@ -3672,2445 +3662,2445 @@
     </row>
     <row r="11" spans="1:59" ht="17" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="35">
+      <c r="B11" s="33"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="34">
         <v>43205</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="30"/>
-      <c r="BC11" s="30"/>
-      <c r="BD11" s="30"/>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="30"/>
-      <c r="BG11" s="36"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="29"/>
+      <c r="BC11" s="29"/>
+      <c r="BD11" s="29"/>
+      <c r="BE11" s="29"/>
+      <c r="BF11" s="29"/>
+      <c r="BG11" s="35"/>
     </row>
     <row r="12" spans="1:59" ht="17" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="33"/>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="32"/>
+      <c r="BD12" s="32"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="32"/>
+      <c r="BG12" s="32"/>
     </row>
     <row r="13" spans="1:59" ht="17" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
-      <c r="AZ13" s="30"/>
-      <c r="BA13" s="30"/>
-      <c r="BB13" s="30"/>
-      <c r="BC13" s="30"/>
-      <c r="BD13" s="30"/>
-      <c r="BE13" s="30"/>
-      <c r="BF13" s="30"/>
-      <c r="BG13" s="36"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="29"/>
+      <c r="BF13" s="29"/>
+      <c r="BG13" s="35"/>
     </row>
     <row r="14" spans="1:59" ht="17" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="33"/>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="33"/>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="32"/>
     </row>
     <row r="15" spans="1:59" ht="17" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="30"/>
-      <c r="AT15" s="30"/>
-      <c r="AU15" s="30"/>
-      <c r="AV15" s="30"/>
-      <c r="AW15" s="30"/>
-      <c r="AX15" s="30"/>
-      <c r="AY15" s="30"/>
-      <c r="AZ15" s="30"/>
-      <c r="BA15" s="30"/>
-      <c r="BB15" s="30"/>
-      <c r="BC15" s="30"/>
-      <c r="BD15" s="30"/>
-      <c r="BE15" s="30"/>
-      <c r="BF15" s="30"/>
-      <c r="BG15" s="36"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="29"/>
+      <c r="BB15" s="29"/>
+      <c r="BC15" s="29"/>
+      <c r="BD15" s="29"/>
+      <c r="BE15" s="29"/>
+      <c r="BF15" s="29"/>
+      <c r="BG15" s="35"/>
     </row>
     <row r="16" spans="1:59" ht="17" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="33"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="33"/>
-      <c r="BD16" s="33"/>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="33"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="32"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="32"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="32"/>
     </row>
     <row r="17" spans="1:59" ht="17" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="30"/>
-      <c r="AT17" s="30"/>
-      <c r="AU17" s="30"/>
-      <c r="AV17" s="30"/>
-      <c r="AW17" s="30"/>
-      <c r="AX17" s="30"/>
-      <c r="AY17" s="30"/>
-      <c r="AZ17" s="30"/>
-      <c r="BA17" s="30"/>
-      <c r="BB17" s="30"/>
-      <c r="BC17" s="30"/>
-      <c r="BD17" s="30"/>
-      <c r="BE17" s="30"/>
-      <c r="BF17" s="30"/>
-      <c r="BG17" s="36"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+      <c r="BB17" s="29"/>
+      <c r="BC17" s="29"/>
+      <c r="BD17" s="29"/>
+      <c r="BE17" s="29"/>
+      <c r="BF17" s="29"/>
+      <c r="BG17" s="35"/>
     </row>
     <row r="18" spans="1:59" ht="17" customHeight="1">
       <c r="A18" s="19"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="33"/>
-      <c r="AY18" s="33"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="33"/>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="33"/>
-      <c r="BD18" s="33"/>
-      <c r="BE18" s="33"/>
-      <c r="BF18" s="33"/>
-      <c r="BG18" s="33"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="32"/>
+      <c r="AY18" s="32"/>
+      <c r="AZ18" s="32"/>
+      <c r="BA18" s="32"/>
+      <c r="BB18" s="32"/>
+      <c r="BC18" s="32"/>
+      <c r="BD18" s="32"/>
+      <c r="BE18" s="32"/>
+      <c r="BF18" s="32"/>
+      <c r="BG18" s="32"/>
     </row>
     <row r="19" spans="1:59" ht="17" customHeight="1">
       <c r="A19" s="19"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
-      <c r="AU19" s="30"/>
-      <c r="AV19" s="30"/>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="30"/>
-      <c r="BD19" s="30"/>
-      <c r="BE19" s="30"/>
-      <c r="BF19" s="30"/>
-      <c r="BG19" s="36"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="29"/>
+      <c r="BD19" s="29"/>
+      <c r="BE19" s="29"/>
+      <c r="BF19" s="29"/>
+      <c r="BG19" s="35"/>
     </row>
     <row r="20" spans="1:59" ht="17" customHeight="1">
       <c r="A20" s="19"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
-      <c r="AS20" s="33"/>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="33"/>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="33"/>
-      <c r="AY20" s="33"/>
-      <c r="AZ20" s="33"/>
-      <c r="BA20" s="33"/>
-      <c r="BB20" s="33"/>
-      <c r="BC20" s="33"/>
-      <c r="BD20" s="33"/>
-      <c r="BE20" s="33"/>
-      <c r="BF20" s="33"/>
-      <c r="BG20" s="33"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="32"/>
+      <c r="AY20" s="32"/>
+      <c r="AZ20" s="32"/>
+      <c r="BA20" s="32"/>
+      <c r="BB20" s="32"/>
+      <c r="BC20" s="32"/>
+      <c r="BD20" s="32"/>
+      <c r="BE20" s="32"/>
+      <c r="BF20" s="32"/>
+      <c r="BG20" s="32"/>
     </row>
     <row r="21" spans="1:59" ht="17" customHeight="1">
       <c r="A21" s="19"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="30"/>
-      <c r="AU21" s="30"/>
-      <c r="AV21" s="30"/>
-      <c r="AW21" s="30"/>
-      <c r="AX21" s="30"/>
-      <c r="AY21" s="30"/>
-      <c r="AZ21" s="30"/>
-      <c r="BA21" s="30"/>
-      <c r="BB21" s="30"/>
-      <c r="BC21" s="30"/>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="30"/>
-      <c r="BF21" s="30"/>
-      <c r="BG21" s="36"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="29"/>
+      <c r="BD21" s="29"/>
+      <c r="BE21" s="29"/>
+      <c r="BF21" s="29"/>
+      <c r="BG21" s="35"/>
     </row>
     <row r="22" spans="1:59" ht="17" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="33"/>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="33"/>
-      <c r="AW22" s="33"/>
-      <c r="AX22" s="33"/>
-      <c r="AY22" s="33"/>
-      <c r="AZ22" s="33"/>
-      <c r="BA22" s="33"/>
-      <c r="BB22" s="33"/>
-      <c r="BC22" s="33"/>
-      <c r="BD22" s="33"/>
-      <c r="BE22" s="33"/>
-      <c r="BF22" s="33"/>
-      <c r="BG22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="32"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="32"/>
+      <c r="BF22" s="32"/>
+      <c r="BG22" s="32"/>
     </row>
     <row r="23" spans="1:59" ht="17" customHeight="1">
       <c r="A23" s="19"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="30"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="30"/>
-      <c r="AV23" s="30"/>
-      <c r="AW23" s="30"/>
-      <c r="AX23" s="30"/>
-      <c r="AY23" s="30"/>
-      <c r="AZ23" s="30"/>
-      <c r="BA23" s="30"/>
-      <c r="BB23" s="30"/>
-      <c r="BC23" s="30"/>
-      <c r="BD23" s="30"/>
-      <c r="BE23" s="30"/>
-      <c r="BF23" s="30"/>
-      <c r="BG23" s="36"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="29"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
+      <c r="AV23" s="29"/>
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="29"/>
+      <c r="BB23" s="29"/>
+      <c r="BC23" s="29"/>
+      <c r="BD23" s="29"/>
+      <c r="BE23" s="29"/>
+      <c r="BF23" s="29"/>
+      <c r="BG23" s="35"/>
     </row>
     <row r="24" spans="1:59" ht="17" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="33"/>
-      <c r="AP24" s="33"/>
-      <c r="AQ24" s="33"/>
-      <c r="AR24" s="33"/>
-      <c r="AS24" s="33"/>
-      <c r="AT24" s="33"/>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="33"/>
-      <c r="AW24" s="33"/>
-      <c r="AX24" s="33"/>
-      <c r="AY24" s="33"/>
-      <c r="AZ24" s="33"/>
-      <c r="BA24" s="33"/>
-      <c r="BB24" s="33"/>
-      <c r="BC24" s="33"/>
-      <c r="BD24" s="33"/>
-      <c r="BE24" s="33"/>
-      <c r="BF24" s="33"/>
-      <c r="BG24" s="33"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="32"/>
+      <c r="AY24" s="32"/>
+      <c r="AZ24" s="32"/>
+      <c r="BA24" s="32"/>
+      <c r="BB24" s="32"/>
+      <c r="BC24" s="32"/>
+      <c r="BD24" s="32"/>
+      <c r="BE24" s="32"/>
+      <c r="BF24" s="32"/>
+      <c r="BG24" s="32"/>
     </row>
     <row r="25" spans="1:59" ht="17" customHeight="1">
       <c r="A25" s="19"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
-      <c r="AU25" s="30"/>
-      <c r="AV25" s="30"/>
-      <c r="AW25" s="30"/>
-      <c r="AX25" s="30"/>
-      <c r="AY25" s="30"/>
-      <c r="AZ25" s="30"/>
-      <c r="BA25" s="30"/>
-      <c r="BB25" s="30"/>
-      <c r="BC25" s="30"/>
-      <c r="BD25" s="30"/>
-      <c r="BE25" s="30"/>
-      <c r="BF25" s="30"/>
-      <c r="BG25" s="36"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="29"/>
+      <c r="AT25" s="29"/>
+      <c r="AU25" s="29"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="29"/>
+      <c r="BB25" s="29"/>
+      <c r="BC25" s="29"/>
+      <c r="BD25" s="29"/>
+      <c r="BE25" s="29"/>
+      <c r="BF25" s="29"/>
+      <c r="BG25" s="35"/>
     </row>
     <row r="26" spans="1:59" ht="17" customHeight="1">
       <c r="A26" s="19"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="33"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="33"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="33"/>
-      <c r="AW26" s="33"/>
-      <c r="AX26" s="33"/>
-      <c r="AY26" s="33"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="33"/>
-      <c r="BB26" s="33"/>
-      <c r="BC26" s="33"/>
-      <c r="BD26" s="33"/>
-      <c r="BE26" s="33"/>
-      <c r="BF26" s="33"/>
-      <c r="BG26" s="33"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="32"/>
+      <c r="AZ26" s="32"/>
+      <c r="BA26" s="32"/>
+      <c r="BB26" s="32"/>
+      <c r="BC26" s="32"/>
+      <c r="BD26" s="32"/>
+      <c r="BE26" s="32"/>
+      <c r="BF26" s="32"/>
+      <c r="BG26" s="32"/>
     </row>
     <row r="27" spans="1:59" ht="17" customHeight="1">
       <c r="A27" s="19"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="30"/>
-      <c r="AV27" s="30"/>
-      <c r="AW27" s="30"/>
-      <c r="AX27" s="30"/>
-      <c r="AY27" s="30"/>
-      <c r="AZ27" s="30"/>
-      <c r="BA27" s="30"/>
-      <c r="BB27" s="30"/>
-      <c r="BC27" s="30"/>
-      <c r="BD27" s="30"/>
-      <c r="BE27" s="30"/>
-      <c r="BF27" s="30"/>
-      <c r="BG27" s="36"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="29"/>
+      <c r="AT27" s="29"/>
+      <c r="AU27" s="29"/>
+      <c r="AV27" s="29"/>
+      <c r="AW27" s="29"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+      <c r="AZ27" s="29"/>
+      <c r="BA27" s="29"/>
+      <c r="BB27" s="29"/>
+      <c r="BC27" s="29"/>
+      <c r="BD27" s="29"/>
+      <c r="BE27" s="29"/>
+      <c r="BF27" s="29"/>
+      <c r="BG27" s="35"/>
     </row>
     <row r="28" spans="1:59" ht="17" customHeight="1">
       <c r="A28" s="19"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="33"/>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="33"/>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="33"/>
-      <c r="BB28" s="33"/>
-      <c r="BC28" s="33"/>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="33"/>
-      <c r="BG28" s="33"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="32"/>
+      <c r="BA28" s="32"/>
+      <c r="BB28" s="32"/>
+      <c r="BC28" s="32"/>
+      <c r="BD28" s="32"/>
+      <c r="BE28" s="32"/>
+      <c r="BF28" s="32"/>
+      <c r="BG28" s="32"/>
     </row>
     <row r="29" spans="1:59" ht="17" customHeight="1">
       <c r="A29" s="19"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
-      <c r="AR29" s="30"/>
-      <c r="AS29" s="30"/>
-      <c r="AT29" s="30"/>
-      <c r="AU29" s="30"/>
-      <c r="AV29" s="30"/>
-      <c r="AW29" s="30"/>
-      <c r="AX29" s="30"/>
-      <c r="AY29" s="30"/>
-      <c r="AZ29" s="30"/>
-      <c r="BA29" s="30"/>
-      <c r="BB29" s="30"/>
-      <c r="BC29" s="30"/>
-      <c r="BD29" s="30"/>
-      <c r="BE29" s="30"/>
-      <c r="BF29" s="30"/>
-      <c r="BG29" s="36"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
+      <c r="AU29" s="29"/>
+      <c r="AV29" s="29"/>
+      <c r="AW29" s="29"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="29"/>
+      <c r="BA29" s="29"/>
+      <c r="BB29" s="29"/>
+      <c r="BC29" s="29"/>
+      <c r="BD29" s="29"/>
+      <c r="BE29" s="29"/>
+      <c r="BF29" s="29"/>
+      <c r="BG29" s="35"/>
     </row>
     <row r="30" spans="1:59" ht="17" customHeight="1">
       <c r="A30" s="19"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="33"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="33"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="33"/>
-      <c r="AY30" s="33"/>
-      <c r="AZ30" s="33"/>
-      <c r="BA30" s="33"/>
-      <c r="BB30" s="33"/>
-      <c r="BC30" s="33"/>
-      <c r="BD30" s="33"/>
-      <c r="BE30" s="33"/>
-      <c r="BF30" s="33"/>
-      <c r="BG30" s="33"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="32"/>
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="32"/>
+      <c r="BA30" s="32"/>
+      <c r="BB30" s="32"/>
+      <c r="BC30" s="32"/>
+      <c r="BD30" s="32"/>
+      <c r="BE30" s="32"/>
+      <c r="BF30" s="32"/>
+      <c r="BG30" s="32"/>
     </row>
     <row r="31" spans="1:59" ht="17" customHeight="1">
       <c r="A31" s="19"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="30"/>
-      <c r="AJ31" s="30"/>
-      <c r="AK31" s="30"/>
-      <c r="AL31" s="30"/>
-      <c r="AM31" s="30"/>
-      <c r="AN31" s="30"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="30"/>
-      <c r="AQ31" s="30"/>
-      <c r="AR31" s="30"/>
-      <c r="AS31" s="30"/>
-      <c r="AT31" s="30"/>
-      <c r="AU31" s="30"/>
-      <c r="AV31" s="30"/>
-      <c r="AW31" s="30"/>
-      <c r="AX31" s="30"/>
-      <c r="AY31" s="30"/>
-      <c r="AZ31" s="30"/>
-      <c r="BA31" s="30"/>
-      <c r="BB31" s="30"/>
-      <c r="BC31" s="30"/>
-      <c r="BD31" s="30"/>
-      <c r="BE31" s="30"/>
-      <c r="BF31" s="30"/>
-      <c r="BG31" s="36"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="29"/>
+      <c r="AR31" s="29"/>
+      <c r="AS31" s="29"/>
+      <c r="AT31" s="29"/>
+      <c r="AU31" s="29"/>
+      <c r="AV31" s="29"/>
+      <c r="AW31" s="29"/>
+      <c r="AX31" s="29"/>
+      <c r="AY31" s="29"/>
+      <c r="AZ31" s="29"/>
+      <c r="BA31" s="29"/>
+      <c r="BB31" s="29"/>
+      <c r="BC31" s="29"/>
+      <c r="BD31" s="29"/>
+      <c r="BE31" s="29"/>
+      <c r="BF31" s="29"/>
+      <c r="BG31" s="35"/>
     </row>
     <row r="32" spans="1:59" ht="17" customHeight="1">
       <c r="A32" s="19"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33"/>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="33"/>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="33"/>
-      <c r="AW32" s="33"/>
-      <c r="AX32" s="33"/>
-      <c r="AY32" s="33"/>
-      <c r="AZ32" s="33"/>
-      <c r="BA32" s="33"/>
-      <c r="BB32" s="33"/>
-      <c r="BC32" s="33"/>
-      <c r="BD32" s="33"/>
-      <c r="BE32" s="33"/>
-      <c r="BF32" s="33"/>
-      <c r="BG32" s="33"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="32"/>
+      <c r="AR32" s="32"/>
+      <c r="AS32" s="32"/>
+      <c r="AT32" s="32"/>
+      <c r="AU32" s="32"/>
+      <c r="AV32" s="32"/>
+      <c r="AW32" s="32"/>
+      <c r="AX32" s="32"/>
+      <c r="AY32" s="32"/>
+      <c r="AZ32" s="32"/>
+      <c r="BA32" s="32"/>
+      <c r="BB32" s="32"/>
+      <c r="BC32" s="32"/>
+      <c r="BD32" s="32"/>
+      <c r="BE32" s="32"/>
+      <c r="BF32" s="32"/>
+      <c r="BG32" s="32"/>
     </row>
     <row r="33" spans="1:59" ht="17" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="30"/>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="30"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="30"/>
-      <c r="AQ33" s="30"/>
-      <c r="AR33" s="30"/>
-      <c r="AS33" s="30"/>
-      <c r="AT33" s="30"/>
-      <c r="AU33" s="30"/>
-      <c r="AV33" s="30"/>
-      <c r="AW33" s="30"/>
-      <c r="AX33" s="30"/>
-      <c r="AY33" s="30"/>
-      <c r="AZ33" s="30"/>
-      <c r="BA33" s="30"/>
-      <c r="BB33" s="30"/>
-      <c r="BC33" s="30"/>
-      <c r="BD33" s="30"/>
-      <c r="BE33" s="30"/>
-      <c r="BF33" s="30"/>
-      <c r="BG33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="29"/>
+      <c r="AR33" s="29"/>
+      <c r="AS33" s="29"/>
+      <c r="AT33" s="29"/>
+      <c r="AU33" s="29"/>
+      <c r="AV33" s="29"/>
+      <c r="AW33" s="29"/>
+      <c r="AX33" s="29"/>
+      <c r="AY33" s="29"/>
+      <c r="AZ33" s="29"/>
+      <c r="BA33" s="29"/>
+      <c r="BB33" s="29"/>
+      <c r="BC33" s="29"/>
+      <c r="BD33" s="29"/>
+      <c r="BE33" s="29"/>
+      <c r="BF33" s="29"/>
+      <c r="BG33" s="35"/>
     </row>
     <row r="34" spans="1:59" ht="17" customHeight="1">
       <c r="A34" s="19"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="33"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="33"/>
-      <c r="AS34" s="33"/>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="33"/>
-      <c r="AZ34" s="33"/>
-      <c r="BA34" s="33"/>
-      <c r="BB34" s="33"/>
-      <c r="BC34" s="33"/>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="33"/>
-      <c r="BF34" s="33"/>
-      <c r="BG34" s="33"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32"/>
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="32"/>
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="32"/>
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="32"/>
+      <c r="AY34" s="32"/>
+      <c r="AZ34" s="32"/>
+      <c r="BA34" s="32"/>
+      <c r="BB34" s="32"/>
+      <c r="BC34" s="32"/>
+      <c r="BD34" s="32"/>
+      <c r="BE34" s="32"/>
+      <c r="BF34" s="32"/>
+      <c r="BG34" s="32"/>
     </row>
     <row r="35" spans="1:59" ht="17" customHeight="1">
       <c r="A35" s="19"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="30"/>
-      <c r="AO35" s="30"/>
-      <c r="AP35" s="30"/>
-      <c r="AQ35" s="30"/>
-      <c r="AR35" s="30"/>
-      <c r="AS35" s="30"/>
-      <c r="AT35" s="30"/>
-      <c r="AU35" s="30"/>
-      <c r="AV35" s="30"/>
-      <c r="AW35" s="30"/>
-      <c r="AX35" s="30"/>
-      <c r="AY35" s="30"/>
-      <c r="AZ35" s="30"/>
-      <c r="BA35" s="30"/>
-      <c r="BB35" s="30"/>
-      <c r="BC35" s="30"/>
-      <c r="BD35" s="30"/>
-      <c r="BE35" s="30"/>
-      <c r="BF35" s="30"/>
-      <c r="BG35" s="36"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="29"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
+      <c r="AS35" s="29"/>
+      <c r="AT35" s="29"/>
+      <c r="AU35" s="29"/>
+      <c r="AV35" s="29"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="29"/>
+      <c r="BB35" s="29"/>
+      <c r="BC35" s="29"/>
+      <c r="BD35" s="29"/>
+      <c r="BE35" s="29"/>
+      <c r="BF35" s="29"/>
+      <c r="BG35" s="35"/>
     </row>
     <row r="36" spans="1:59" ht="17" customHeight="1">
       <c r="A36" s="19"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="33"/>
-      <c r="AX36" s="33"/>
-      <c r="AY36" s="33"/>
-      <c r="AZ36" s="33"/>
-      <c r="BA36" s="33"/>
-      <c r="BB36" s="33"/>
-      <c r="BC36" s="33"/>
-      <c r="BD36" s="33"/>
-      <c r="BE36" s="33"/>
-      <c r="BF36" s="33"/>
-      <c r="BG36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="32"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="32"/>
+      <c r="AW36" s="32"/>
+      <c r="AX36" s="32"/>
+      <c r="AY36" s="32"/>
+      <c r="AZ36" s="32"/>
+      <c r="BA36" s="32"/>
+      <c r="BB36" s="32"/>
+      <c r="BC36" s="32"/>
+      <c r="BD36" s="32"/>
+      <c r="BE36" s="32"/>
+      <c r="BF36" s="32"/>
+      <c r="BG36" s="32"/>
     </row>
     <row r="37" spans="1:59" ht="17" customHeight="1">
       <c r="A37" s="19"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
-      <c r="AN37" s="30"/>
-      <c r="AO37" s="30"/>
-      <c r="AP37" s="30"/>
-      <c r="AQ37" s="30"/>
-      <c r="AR37" s="30"/>
-      <c r="AS37" s="30"/>
-      <c r="AT37" s="30"/>
-      <c r="AU37" s="30"/>
-      <c r="AV37" s="30"/>
-      <c r="AW37" s="30"/>
-      <c r="AX37" s="30"/>
-      <c r="AY37" s="30"/>
-      <c r="AZ37" s="30"/>
-      <c r="BA37" s="30"/>
-      <c r="BB37" s="30"/>
-      <c r="BC37" s="30"/>
-      <c r="BD37" s="30"/>
-      <c r="BE37" s="30"/>
-      <c r="BF37" s="30"/>
-      <c r="BG37" s="36"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="29"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="29"/>
+      <c r="AS37" s="29"/>
+      <c r="AT37" s="29"/>
+      <c r="AU37" s="29"/>
+      <c r="AV37" s="29"/>
+      <c r="AW37" s="29"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="29"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="29"/>
+      <c r="BB37" s="29"/>
+      <c r="BC37" s="29"/>
+      <c r="BD37" s="29"/>
+      <c r="BE37" s="29"/>
+      <c r="BF37" s="29"/>
+      <c r="BG37" s="35"/>
     </row>
     <row r="38" spans="1:59" ht="17" customHeight="1">
       <c r="A38" s="19"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33"/>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="33"/>
-      <c r="AS38" s="33"/>
-      <c r="AT38" s="33"/>
-      <c r="AU38" s="33"/>
-      <c r="AV38" s="33"/>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="33"/>
-      <c r="AY38" s="33"/>
-      <c r="AZ38" s="33"/>
-      <c r="BA38" s="33"/>
-      <c r="BB38" s="33"/>
-      <c r="BC38" s="33"/>
-      <c r="BD38" s="33"/>
-      <c r="BE38" s="33"/>
-      <c r="BF38" s="33"/>
-      <c r="BG38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="32"/>
+      <c r="AP38" s="32"/>
+      <c r="AQ38" s="32"/>
+      <c r="AR38" s="32"/>
+      <c r="AS38" s="32"/>
+      <c r="AT38" s="32"/>
+      <c r="AU38" s="32"/>
+      <c r="AV38" s="32"/>
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="32"/>
+      <c r="AY38" s="32"/>
+      <c r="AZ38" s="32"/>
+      <c r="BA38" s="32"/>
+      <c r="BB38" s="32"/>
+      <c r="BC38" s="32"/>
+      <c r="BD38" s="32"/>
+      <c r="BE38" s="32"/>
+      <c r="BF38" s="32"/>
+      <c r="BG38" s="32"/>
     </row>
     <row r="39" spans="1:59" ht="17" customHeight="1">
       <c r="A39" s="19"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="30"/>
-      <c r="AH39" s="30"/>
-      <c r="AI39" s="30"/>
-      <c r="AJ39" s="30"/>
-      <c r="AK39" s="30"/>
-      <c r="AL39" s="30"/>
-      <c r="AM39" s="30"/>
-      <c r="AN39" s="30"/>
-      <c r="AO39" s="30"/>
-      <c r="AP39" s="30"/>
-      <c r="AQ39" s="30"/>
-      <c r="AR39" s="30"/>
-      <c r="AS39" s="30"/>
-      <c r="AT39" s="30"/>
-      <c r="AU39" s="30"/>
-      <c r="AV39" s="30"/>
-      <c r="AW39" s="30"/>
-      <c r="AX39" s="30"/>
-      <c r="AY39" s="30"/>
-      <c r="AZ39" s="30"/>
-      <c r="BA39" s="30"/>
-      <c r="BB39" s="30"/>
-      <c r="BC39" s="30"/>
-      <c r="BD39" s="30"/>
-      <c r="BE39" s="30"/>
-      <c r="BF39" s="30"/>
-      <c r="BG39" s="36"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="29"/>
+      <c r="AN39" s="29"/>
+      <c r="AO39" s="29"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="29"/>
+      <c r="AS39" s="29"/>
+      <c r="AT39" s="29"/>
+      <c r="AU39" s="29"/>
+      <c r="AV39" s="29"/>
+      <c r="AW39" s="29"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="29"/>
+      <c r="AZ39" s="29"/>
+      <c r="BA39" s="29"/>
+      <c r="BB39" s="29"/>
+      <c r="BC39" s="29"/>
+      <c r="BD39" s="29"/>
+      <c r="BE39" s="29"/>
+      <c r="BF39" s="29"/>
+      <c r="BG39" s="35"/>
     </row>
     <row r="40" spans="1:59" ht="17" customHeight="1">
       <c r="A40" s="19"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="33"/>
-      <c r="AG40" s="33"/>
-      <c r="AH40" s="33"/>
-      <c r="AI40" s="33"/>
-      <c r="AJ40" s="33"/>
-      <c r="AK40" s="33"/>
-      <c r="AL40" s="33"/>
-      <c r="AM40" s="33"/>
-      <c r="AN40" s="33"/>
-      <c r="AO40" s="33"/>
-      <c r="AP40" s="33"/>
-      <c r="AQ40" s="33"/>
-      <c r="AR40" s="33"/>
-      <c r="AS40" s="33"/>
-      <c r="AT40" s="33"/>
-      <c r="AU40" s="33"/>
-      <c r="AV40" s="33"/>
-      <c r="AW40" s="33"/>
-      <c r="AX40" s="33"/>
-      <c r="AY40" s="33"/>
-      <c r="AZ40" s="33"/>
-      <c r="BA40" s="33"/>
-      <c r="BB40" s="33"/>
-      <c r="BC40" s="33"/>
-      <c r="BD40" s="33"/>
-      <c r="BE40" s="33"/>
-      <c r="BF40" s="33"/>
-      <c r="BG40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="32"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+      <c r="AV40" s="32"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="32"/>
+      <c r="AY40" s="32"/>
+      <c r="AZ40" s="32"/>
+      <c r="BA40" s="32"/>
+      <c r="BB40" s="32"/>
+      <c r="BC40" s="32"/>
+      <c r="BD40" s="32"/>
+      <c r="BE40" s="32"/>
+      <c r="BF40" s="32"/>
+      <c r="BG40" s="32"/>
     </row>
     <row r="41" spans="1:59" ht="17" customHeight="1">
       <c r="A41" s="19"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
-      <c r="AE41" s="30"/>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="30"/>
-      <c r="AH41" s="30"/>
-      <c r="AI41" s="30"/>
-      <c r="AJ41" s="30"/>
-      <c r="AK41" s="30"/>
-      <c r="AL41" s="30"/>
-      <c r="AM41" s="30"/>
-      <c r="AN41" s="30"/>
-      <c r="AO41" s="30"/>
-      <c r="AP41" s="30"/>
-      <c r="AQ41" s="30"/>
-      <c r="AR41" s="30"/>
-      <c r="AS41" s="30"/>
-      <c r="AT41" s="30"/>
-      <c r="AU41" s="30"/>
-      <c r="AV41" s="30"/>
-      <c r="AW41" s="30"/>
-      <c r="AX41" s="30"/>
-      <c r="AY41" s="30"/>
-      <c r="AZ41" s="30"/>
-      <c r="BA41" s="30"/>
-      <c r="BB41" s="30"/>
-      <c r="BC41" s="30"/>
-      <c r="BD41" s="30"/>
-      <c r="BE41" s="30"/>
-      <c r="BF41" s="30"/>
-      <c r="BG41" s="36"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="29"/>
+      <c r="AL41" s="29"/>
+      <c r="AM41" s="29"/>
+      <c r="AN41" s="29"/>
+      <c r="AO41" s="29"/>
+      <c r="AP41" s="29"/>
+      <c r="AQ41" s="29"/>
+      <c r="AR41" s="29"/>
+      <c r="AS41" s="29"/>
+      <c r="AT41" s="29"/>
+      <c r="AU41" s="29"/>
+      <c r="AV41" s="29"/>
+      <c r="AW41" s="29"/>
+      <c r="AX41" s="29"/>
+      <c r="AY41" s="29"/>
+      <c r="AZ41" s="29"/>
+      <c r="BA41" s="29"/>
+      <c r="BB41" s="29"/>
+      <c r="BC41" s="29"/>
+      <c r="BD41" s="29"/>
+      <c r="BE41" s="29"/>
+      <c r="BF41" s="29"/>
+      <c r="BG41" s="35"/>
     </row>
     <row r="42" spans="1:59" ht="17" customHeight="1">
       <c r="A42" s="19"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="33"/>
-      <c r="AJ42" s="33"/>
-      <c r="AK42" s="33"/>
-      <c r="AL42" s="33"/>
-      <c r="AM42" s="33"/>
-      <c r="AN42" s="33"/>
-      <c r="AO42" s="33"/>
-      <c r="AP42" s="33"/>
-      <c r="AQ42" s="33"/>
-      <c r="AR42" s="33"/>
-      <c r="AS42" s="33"/>
-      <c r="AT42" s="33"/>
-      <c r="AU42" s="33"/>
-      <c r="AV42" s="33"/>
-      <c r="AW42" s="33"/>
-      <c r="AX42" s="33"/>
-      <c r="AY42" s="33"/>
-      <c r="AZ42" s="33"/>
-      <c r="BA42" s="33"/>
-      <c r="BB42" s="33"/>
-      <c r="BC42" s="33"/>
-      <c r="BD42" s="33"/>
-      <c r="BE42" s="33"/>
-      <c r="BF42" s="33"/>
-      <c r="BG42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="32"/>
+      <c r="AP42" s="32"/>
+      <c r="AQ42" s="32"/>
+      <c r="AR42" s="32"/>
+      <c r="AS42" s="32"/>
+      <c r="AT42" s="32"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="32"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="32"/>
+      <c r="BA42" s="32"/>
+      <c r="BB42" s="32"/>
+      <c r="BC42" s="32"/>
+      <c r="BD42" s="32"/>
+      <c r="BE42" s="32"/>
+      <c r="BF42" s="32"/>
+      <c r="BG42" s="32"/>
     </row>
     <row r="43" spans="1:59" ht="17" customHeight="1">
       <c r="A43" s="19"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="30"/>
-      <c r="AE43" s="30"/>
-      <c r="AF43" s="30"/>
-      <c r="AG43" s="30"/>
-      <c r="AH43" s="30"/>
-      <c r="AI43" s="30"/>
-      <c r="AJ43" s="30"/>
-      <c r="AK43" s="30"/>
-      <c r="AL43" s="30"/>
-      <c r="AM43" s="30"/>
-      <c r="AN43" s="30"/>
-      <c r="AO43" s="30"/>
-      <c r="AP43" s="30"/>
-      <c r="AQ43" s="30"/>
-      <c r="AR43" s="30"/>
-      <c r="AS43" s="30"/>
-      <c r="AT43" s="30"/>
-      <c r="AU43" s="30"/>
-      <c r="AV43" s="30"/>
-      <c r="AW43" s="30"/>
-      <c r="AX43" s="30"/>
-      <c r="AY43" s="30"/>
-      <c r="AZ43" s="30"/>
-      <c r="BA43" s="30"/>
-      <c r="BB43" s="30"/>
-      <c r="BC43" s="30"/>
-      <c r="BD43" s="30"/>
-      <c r="BE43" s="30"/>
-      <c r="BF43" s="30"/>
-      <c r="BG43" s="36"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="29"/>
+      <c r="AL43" s="29"/>
+      <c r="AM43" s="29"/>
+      <c r="AN43" s="29"/>
+      <c r="AO43" s="29"/>
+      <c r="AP43" s="29"/>
+      <c r="AQ43" s="29"/>
+      <c r="AR43" s="29"/>
+      <c r="AS43" s="29"/>
+      <c r="AT43" s="29"/>
+      <c r="AU43" s="29"/>
+      <c r="AV43" s="29"/>
+      <c r="AW43" s="29"/>
+      <c r="AX43" s="29"/>
+      <c r="AY43" s="29"/>
+      <c r="AZ43" s="29"/>
+      <c r="BA43" s="29"/>
+      <c r="BB43" s="29"/>
+      <c r="BC43" s="29"/>
+      <c r="BD43" s="29"/>
+      <c r="BE43" s="29"/>
+      <c r="BF43" s="29"/>
+      <c r="BG43" s="35"/>
     </row>
     <row r="44" spans="1:59" ht="17" customHeight="1">
       <c r="A44" s="19"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
-      <c r="AG44" s="33"/>
-      <c r="AH44" s="33"/>
-      <c r="AI44" s="33"/>
-      <c r="AJ44" s="33"/>
-      <c r="AK44" s="33"/>
-      <c r="AL44" s="33"/>
-      <c r="AM44" s="33"/>
-      <c r="AN44" s="33"/>
-      <c r="AO44" s="33"/>
-      <c r="AP44" s="33"/>
-      <c r="AQ44" s="33"/>
-      <c r="AR44" s="33"/>
-      <c r="AS44" s="33"/>
-      <c r="AT44" s="33"/>
-      <c r="AU44" s="33"/>
-      <c r="AV44" s="33"/>
-      <c r="AW44" s="33"/>
-      <c r="AX44" s="33"/>
-      <c r="AY44" s="33"/>
-      <c r="AZ44" s="33"/>
-      <c r="BA44" s="33"/>
-      <c r="BB44" s="33"/>
-      <c r="BC44" s="33"/>
-      <c r="BD44" s="33"/>
-      <c r="BE44" s="33"/>
-      <c r="BF44" s="33"/>
-      <c r="BG44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="32"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="32"/>
+      <c r="AJ44" s="32"/>
+      <c r="AK44" s="32"/>
+      <c r="AL44" s="32"/>
+      <c r="AM44" s="32"/>
+      <c r="AN44" s="32"/>
+      <c r="AO44" s="32"/>
+      <c r="AP44" s="32"/>
+      <c r="AQ44" s="32"/>
+      <c r="AR44" s="32"/>
+      <c r="AS44" s="32"/>
+      <c r="AT44" s="32"/>
+      <c r="AU44" s="32"/>
+      <c r="AV44" s="32"/>
+      <c r="AW44" s="32"/>
+      <c r="AX44" s="32"/>
+      <c r="AY44" s="32"/>
+      <c r="AZ44" s="32"/>
+      <c r="BA44" s="32"/>
+      <c r="BB44" s="32"/>
+      <c r="BC44" s="32"/>
+      <c r="BD44" s="32"/>
+      <c r="BE44" s="32"/>
+      <c r="BF44" s="32"/>
+      <c r="BG44" s="32"/>
     </row>
     <row r="45" spans="1:59" ht="17" customHeight="1">
       <c r="A45" s="19"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="30"/>
-      <c r="AH45" s="30"/>
-      <c r="AI45" s="30"/>
-      <c r="AJ45" s="30"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="30"/>
-      <c r="AM45" s="30"/>
-      <c r="AN45" s="30"/>
-      <c r="AO45" s="30"/>
-      <c r="AP45" s="30"/>
-      <c r="AQ45" s="30"/>
-      <c r="AR45" s="30"/>
-      <c r="AS45" s="30"/>
-      <c r="AT45" s="30"/>
-      <c r="AU45" s="30"/>
-      <c r="AV45" s="30"/>
-      <c r="AW45" s="30"/>
-      <c r="AX45" s="30"/>
-      <c r="AY45" s="30"/>
-      <c r="AZ45" s="30"/>
-      <c r="BA45" s="30"/>
-      <c r="BB45" s="30"/>
-      <c r="BC45" s="30"/>
-      <c r="BD45" s="30"/>
-      <c r="BE45" s="30"/>
-      <c r="BF45" s="30"/>
-      <c r="BG45" s="36"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="29"/>
+      <c r="AL45" s="29"/>
+      <c r="AM45" s="29"/>
+      <c r="AN45" s="29"/>
+      <c r="AO45" s="29"/>
+      <c r="AP45" s="29"/>
+      <c r="AQ45" s="29"/>
+      <c r="AR45" s="29"/>
+      <c r="AS45" s="29"/>
+      <c r="AT45" s="29"/>
+      <c r="AU45" s="29"/>
+      <c r="AV45" s="29"/>
+      <c r="AW45" s="29"/>
+      <c r="AX45" s="29"/>
+      <c r="AY45" s="29"/>
+      <c r="AZ45" s="29"/>
+      <c r="BA45" s="29"/>
+      <c r="BB45" s="29"/>
+      <c r="BC45" s="29"/>
+      <c r="BD45" s="29"/>
+      <c r="BE45" s="29"/>
+      <c r="BF45" s="29"/>
+      <c r="BG45" s="35"/>
     </row>
     <row r="46" spans="1:59" ht="17" customHeight="1">
       <c r="A46" s="19"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="33"/>
-      <c r="AI46" s="33"/>
-      <c r="AJ46" s="33"/>
-      <c r="AK46" s="33"/>
-      <c r="AL46" s="33"/>
-      <c r="AM46" s="33"/>
-      <c r="AN46" s="33"/>
-      <c r="AO46" s="33"/>
-      <c r="AP46" s="33"/>
-      <c r="AQ46" s="33"/>
-      <c r="AR46" s="33"/>
-      <c r="AS46" s="33"/>
-      <c r="AT46" s="33"/>
-      <c r="AU46" s="33"/>
-      <c r="AV46" s="33"/>
-      <c r="AW46" s="33"/>
-      <c r="AX46" s="33"/>
-      <c r="AY46" s="33"/>
-      <c r="AZ46" s="33"/>
-      <c r="BA46" s="33"/>
-      <c r="BB46" s="33"/>
-      <c r="BC46" s="33"/>
-      <c r="BD46" s="33"/>
-      <c r="BE46" s="33"/>
-      <c r="BF46" s="33"/>
-      <c r="BG46" s="33"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="32"/>
+      <c r="AJ46" s="32"/>
+      <c r="AK46" s="32"/>
+      <c r="AL46" s="32"/>
+      <c r="AM46" s="32"/>
+      <c r="AN46" s="32"/>
+      <c r="AO46" s="32"/>
+      <c r="AP46" s="32"/>
+      <c r="AQ46" s="32"/>
+      <c r="AR46" s="32"/>
+      <c r="AS46" s="32"/>
+      <c r="AT46" s="32"/>
+      <c r="AU46" s="32"/>
+      <c r="AV46" s="32"/>
+      <c r="AW46" s="32"/>
+      <c r="AX46" s="32"/>
+      <c r="AY46" s="32"/>
+      <c r="AZ46" s="32"/>
+      <c r="BA46" s="32"/>
+      <c r="BB46" s="32"/>
+      <c r="BC46" s="32"/>
+      <c r="BD46" s="32"/>
+      <c r="BE46" s="32"/>
+      <c r="BF46" s="32"/>
+      <c r="BG46" s="32"/>
     </row>
     <row r="47" spans="1:59" ht="17" customHeight="1">
       <c r="A47" s="19"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30"/>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30"/>
-      <c r="AI47" s="30"/>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="30"/>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30"/>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="30"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="30"/>
-      <c r="AU47" s="30"/>
-      <c r="AV47" s="30"/>
-      <c r="AW47" s="30"/>
-      <c r="AX47" s="30"/>
-      <c r="AY47" s="30"/>
-      <c r="AZ47" s="30"/>
-      <c r="BA47" s="30"/>
-      <c r="BB47" s="30"/>
-      <c r="BC47" s="30"/>
-      <c r="BD47" s="30"/>
-      <c r="BE47" s="30"/>
-      <c r="BF47" s="30"/>
-      <c r="BG47" s="36"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="29"/>
+      <c r="AT47" s="29"/>
+      <c r="AU47" s="29"/>
+      <c r="AV47" s="29"/>
+      <c r="AW47" s="29"/>
+      <c r="AX47" s="29"/>
+      <c r="AY47" s="29"/>
+      <c r="AZ47" s="29"/>
+      <c r="BA47" s="29"/>
+      <c r="BB47" s="29"/>
+      <c r="BC47" s="29"/>
+      <c r="BD47" s="29"/>
+      <c r="BE47" s="29"/>
+      <c r="BF47" s="29"/>
+      <c r="BG47" s="35"/>
     </row>
     <row r="48" spans="1:59" ht="17" customHeight="1">
       <c r="A48" s="19"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="33"/>
-      <c r="AG48" s="33"/>
-      <c r="AH48" s="33"/>
-      <c r="AI48" s="33"/>
-      <c r="AJ48" s="33"/>
-      <c r="AK48" s="33"/>
-      <c r="AL48" s="33"/>
-      <c r="AM48" s="33"/>
-      <c r="AN48" s="33"/>
-      <c r="AO48" s="33"/>
-      <c r="AP48" s="33"/>
-      <c r="AQ48" s="33"/>
-      <c r="AR48" s="33"/>
-      <c r="AS48" s="33"/>
-      <c r="AT48" s="33"/>
-      <c r="AU48" s="33"/>
-      <c r="AV48" s="33"/>
-      <c r="AW48" s="33"/>
-      <c r="AX48" s="33"/>
-      <c r="AY48" s="33"/>
-      <c r="AZ48" s="33"/>
-      <c r="BA48" s="33"/>
-      <c r="BB48" s="33"/>
-      <c r="BC48" s="33"/>
-      <c r="BD48" s="33"/>
-      <c r="BE48" s="33"/>
-      <c r="BF48" s="33"/>
-      <c r="BG48" s="33"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="32"/>
+      <c r="AK48" s="32"/>
+      <c r="AL48" s="32"/>
+      <c r="AM48" s="32"/>
+      <c r="AN48" s="32"/>
+      <c r="AO48" s="32"/>
+      <c r="AP48" s="32"/>
+      <c r="AQ48" s="32"/>
+      <c r="AR48" s="32"/>
+      <c r="AS48" s="32"/>
+      <c r="AT48" s="32"/>
+      <c r="AU48" s="32"/>
+      <c r="AV48" s="32"/>
+      <c r="AW48" s="32"/>
+      <c r="AX48" s="32"/>
+      <c r="AY48" s="32"/>
+      <c r="AZ48" s="32"/>
+      <c r="BA48" s="32"/>
+      <c r="BB48" s="32"/>
+      <c r="BC48" s="32"/>
+      <c r="BD48" s="32"/>
+      <c r="BE48" s="32"/>
+      <c r="BF48" s="32"/>
+      <c r="BG48" s="32"/>
     </row>
     <row r="49" spans="1:59" ht="17" customHeight="1">
       <c r="A49" s="19"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30"/>
-      <c r="AE49" s="30"/>
-      <c r="AF49" s="30"/>
-      <c r="AG49" s="30"/>
-      <c r="AH49" s="30"/>
-      <c r="AI49" s="30"/>
-      <c r="AJ49" s="30"/>
-      <c r="AK49" s="30"/>
-      <c r="AL49" s="30"/>
-      <c r="AM49" s="30"/>
-      <c r="AN49" s="30"/>
-      <c r="AO49" s="30"/>
-      <c r="AP49" s="30"/>
-      <c r="AQ49" s="30"/>
-      <c r="AR49" s="30"/>
-      <c r="AS49" s="30"/>
-      <c r="AT49" s="30"/>
-      <c r="AU49" s="30"/>
-      <c r="AV49" s="30"/>
-      <c r="AW49" s="30"/>
-      <c r="AX49" s="30"/>
-      <c r="AY49" s="30"/>
-      <c r="AZ49" s="30"/>
-      <c r="BA49" s="30"/>
-      <c r="BB49" s="30"/>
-      <c r="BC49" s="30"/>
-      <c r="BD49" s="30"/>
-      <c r="BE49" s="30"/>
-      <c r="BF49" s="30"/>
-      <c r="BG49" s="36"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="29"/>
+      <c r="AL49" s="29"/>
+      <c r="AM49" s="29"/>
+      <c r="AN49" s="29"/>
+      <c r="AO49" s="29"/>
+      <c r="AP49" s="29"/>
+      <c r="AQ49" s="29"/>
+      <c r="AR49" s="29"/>
+      <c r="AS49" s="29"/>
+      <c r="AT49" s="29"/>
+      <c r="AU49" s="29"/>
+      <c r="AV49" s="29"/>
+      <c r="AW49" s="29"/>
+      <c r="AX49" s="29"/>
+      <c r="AY49" s="29"/>
+      <c r="AZ49" s="29"/>
+      <c r="BA49" s="29"/>
+      <c r="BB49" s="29"/>
+      <c r="BC49" s="29"/>
+      <c r="BD49" s="29"/>
+      <c r="BE49" s="29"/>
+      <c r="BF49" s="29"/>
+      <c r="BG49" s="35"/>
     </row>
     <row r="50" spans="1:59" ht="17" customHeight="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="39"/>
-      <c r="AP50" s="39"/>
-      <c r="AQ50" s="39"/>
-      <c r="AR50" s="39"/>
-      <c r="AS50" s="39"/>
-      <c r="AT50" s="39"/>
-      <c r="AU50" s="39"/>
-      <c r="AV50" s="39"/>
-      <c r="AW50" s="39"/>
-      <c r="AX50" s="39"/>
-      <c r="AY50" s="39"/>
-      <c r="AZ50" s="39"/>
-      <c r="BA50" s="39"/>
-      <c r="BB50" s="39"/>
-      <c r="BC50" s="39"/>
-      <c r="BD50" s="39"/>
-      <c r="BE50" s="39"/>
-      <c r="BF50" s="39"/>
-      <c r="BG50" s="39"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="38"/>
+      <c r="AH50" s="38"/>
+      <c r="AI50" s="38"/>
+      <c r="AJ50" s="38"/>
+      <c r="AK50" s="38"/>
+      <c r="AL50" s="38"/>
+      <c r="AM50" s="38"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="38"/>
+      <c r="AP50" s="38"/>
+      <c r="AQ50" s="38"/>
+      <c r="AR50" s="38"/>
+      <c r="AS50" s="38"/>
+      <c r="AT50" s="38"/>
+      <c r="AU50" s="38"/>
+      <c r="AV50" s="38"/>
+      <c r="AW50" s="38"/>
+      <c r="AX50" s="38"/>
+      <c r="AY50" s="38"/>
+      <c r="AZ50" s="38"/>
+      <c r="BA50" s="38"/>
+      <c r="BB50" s="38"/>
+      <c r="BC50" s="38"/>
+      <c r="BD50" s="38"/>
+      <c r="BE50" s="38"/>
+      <c r="BF50" s="38"/>
+      <c r="BG50" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6132,42 +6122,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="48" style="40" customWidth="1"/>
-    <col min="3" max="256" width="8.6640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="48" style="39" customWidth="1"/>
+    <col min="3" max="256" width="8.6640625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="40"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>43404</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="18">
         <v>43114</v>
       </c>
@@ -6243,44 +6233,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="47" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="47" customWidth="1"/>
-    <col min="3" max="3" width="11" style="47" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="47" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="47" customWidth="1"/>
-    <col min="6" max="256" width="11" style="47" customWidth="1"/>
+    <col min="1" max="1" width="10" style="46" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="11" style="46" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="46" customWidth="1"/>
+    <col min="6" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" ht="47" customHeight="1">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" ht="47" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -6292,19 +6282,19 @@
       <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="39" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="57">
+      <c r="B3" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="56">
         <v>10</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -6316,15 +6306,15 @@
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" ht="31" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60">
         <v>5</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -6336,17 +6326,17 @@
       <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="63" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="63">
         <v>4</v>
       </c>
-      <c r="D5" s="64">
-        <v>4</v>
-      </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -6358,17 +6348,17 @@
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="64">
+      <c r="A6" s="61"/>
+      <c r="B6" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="63">
         <v>10</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -6380,17 +6370,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="64">
+      <c r="A7" s="64"/>
+      <c r="B7" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="63">
         <v>11</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -6402,17 +6392,17 @@
       <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="63" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="63">
         <v>7</v>
       </c>
-      <c r="D8" s="64">
-        <v>7</v>
-      </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -6424,17 +6414,17 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="64">
+      <c r="A9" s="65"/>
+      <c r="B9" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="63">
         <v>4</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -6446,17 +6436,17 @@
       <c r="N9" s="28"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="64">
+      <c r="A10" s="65"/>
+      <c r="B10" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="63">
         <v>6</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -6468,17 +6458,17 @@
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="64">
+      <c r="A11" s="65"/>
+      <c r="B11" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="63">
         <v>3</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -6490,17 +6480,17 @@
       <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="64">
+      <c r="A12" s="65"/>
+      <c r="B12" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="63">
         <v>1</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -6512,17 +6502,17 @@
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="64">
+      <c r="A13" s="65"/>
+      <c r="B13" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="63">
         <v>6</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -6534,17 +6524,17 @@
       <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="64">
+      <c r="A14" s="65"/>
+      <c r="B14" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="63">
         <v>8</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -6556,17 +6546,17 @@
       <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="64">
+      <c r="A15" s="65"/>
+      <c r="B15" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="63">
         <v>9</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -6578,17 +6568,17 @@
       <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="64">
+      <c r="A16" s="65"/>
+      <c r="B16" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="63">
         <v>5</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -6600,17 +6590,17 @@
       <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="64">
+      <c r="A17" s="65"/>
+      <c r="B17" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="63">
         <v>4</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -6622,17 +6612,17 @@
       <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="64">
+      <c r="A18" s="65"/>
+      <c r="B18" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="63">
         <v>2</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -6644,17 +6634,17 @@
       <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="64">
+      <c r="A19" s="65"/>
+      <c r="B19" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="63">
         <v>5</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -6666,17 +6656,17 @@
       <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="64">
+      <c r="A20" s="65"/>
+      <c r="B20" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="63">
         <v>7</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -6688,17 +6678,17 @@
       <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="64">
+      <c r="A21" s="65"/>
+      <c r="B21" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="63">
         <v>15</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -6710,17 +6700,17 @@
       <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="64">
+      <c r="A22" s="65"/>
+      <c r="B22" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="63">
         <v>3</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -6732,17 +6722,17 @@
       <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="64">
+      <c r="A23" s="65"/>
+      <c r="B23" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="63">
         <v>7</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -6754,17 +6744,17 @@
       <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="64">
+      <c r="A24" s="65"/>
+      <c r="B24" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="63">
         <v>0</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -6776,17 +6766,17 @@
       <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="64">
+      <c r="A25" s="65"/>
+      <c r="B25" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="63">
         <v>3</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -6798,17 +6788,17 @@
       <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="64">
+      <c r="A26" s="65"/>
+      <c r="B26" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="63">
         <v>7</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -6820,17 +6810,17 @@
       <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="64">
+      <c r="A27" s="65"/>
+      <c r="B27" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="63">
         <v>3</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -6842,17 +6832,17 @@
       <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="64">
+      <c r="A28" s="65"/>
+      <c r="B28" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="63">
         <v>2</v>
       </c>
-      <c r="E28" s="41"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -6864,17 +6854,17 @@
       <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="64">
+      <c r="A29" s="65"/>
+      <c r="B29" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="63">
         <v>5</v>
       </c>
-      <c r="E29" s="41"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -6886,17 +6876,17 @@
       <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="64">
+      <c r="A30" s="65"/>
+      <c r="B30" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="63">
         <v>7</v>
       </c>
-      <c r="E30" s="41"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -6908,17 +6898,17 @@
       <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="64">
+      <c r="A31" s="65"/>
+      <c r="B31" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="63">
         <v>4</v>
       </c>
-      <c r="E31" s="41"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
@@ -6930,17 +6920,17 @@
       <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="64">
+      <c r="A32" s="65"/>
+      <c r="B32" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="63">
         <v>4</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -6952,17 +6942,17 @@
       <c r="N32" s="28"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="64">
+      <c r="A33" s="65"/>
+      <c r="B33" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="63">
         <v>2</v>
       </c>
-      <c r="E33" s="41"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -6974,17 +6964,17 @@
       <c r="N33" s="28"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="64">
+      <c r="A34" s="65"/>
+      <c r="B34" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="63">
         <v>5</v>
       </c>
-      <c r="E34" s="41"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -6996,17 +6986,17 @@
       <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="64">
+      <c r="A35" s="65"/>
+      <c r="B35" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="63">
         <v>7</v>
       </c>
-      <c r="E35" s="41"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -7018,17 +7008,17 @@
       <c r="N35" s="28"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="64">
+      <c r="A36" s="65"/>
+      <c r="B36" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="63">
         <v>9</v>
       </c>
-      <c r="E36" s="41"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
@@ -7040,17 +7030,17 @@
       <c r="N36" s="28"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="64">
+      <c r="A37" s="65"/>
+      <c r="B37" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="63">
         <v>4</v>
       </c>
-      <c r="E37" s="41"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
@@ -7062,17 +7052,17 @@
       <c r="N37" s="28"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="66"/>
-      <c r="B38" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="64">
+      <c r="A38" s="65"/>
+      <c r="B38" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="63">
         <v>2</v>
       </c>
-      <c r="E38" s="41"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
@@ -7084,17 +7074,17 @@
       <c r="N38" s="28"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="66"/>
-      <c r="B39" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="64">
+      <c r="A39" s="65"/>
+      <c r="B39" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="63">
         <v>6</v>
       </c>
-      <c r="E39" s="41"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
@@ -7106,17 +7096,17 @@
       <c r="N39" s="28"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="64">
+      <c r="A40" s="65"/>
+      <c r="B40" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="63">
         <v>3</v>
       </c>
-      <c r="E40" s="41"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
@@ -7128,17 +7118,17 @@
       <c r="N40" s="28"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="66"/>
-      <c r="B41" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="64">
+      <c r="A41" s="65"/>
+      <c r="B41" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="63">
         <v>2</v>
       </c>
-      <c r="E41" s="41"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -7150,17 +7140,17 @@
       <c r="N41" s="28"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="66"/>
-      <c r="B42" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="64">
+      <c r="A42" s="65"/>
+      <c r="B42" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="63">
         <v>6</v>
       </c>
-      <c r="E42" s="41"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
@@ -7172,17 +7162,17 @@
       <c r="N42" s="28"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="66"/>
-      <c r="B43" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="64">
+      <c r="A43" s="65"/>
+      <c r="B43" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="63">
         <v>5</v>
       </c>
-      <c r="E43" s="41"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
@@ -7194,17 +7184,17 @@
       <c r="N43" s="28"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="66"/>
-      <c r="B44" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="64">
+      <c r="A44" s="65"/>
+      <c r="B44" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="63">
         <v>3</v>
       </c>
-      <c r="E44" s="41"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
@@ -7216,17 +7206,17 @@
       <c r="N44" s="28"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="66"/>
-      <c r="B45" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="64">
+      <c r="A45" s="65"/>
+      <c r="B45" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="63">
         <v>5</v>
       </c>
-      <c r="E45" s="41"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -7238,17 +7228,17 @@
       <c r="N45" s="28"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A46" s="66"/>
-      <c r="B46" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="64">
+      <c r="A46" s="65"/>
+      <c r="B46" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="63">
         <v>36</v>
       </c>
-      <c r="E46" s="41"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
@@ -7260,17 +7250,17 @@
       <c r="N46" s="28"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A47" s="66"/>
-      <c r="B47" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="64">
+      <c r="A47" s="65"/>
+      <c r="B47" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="63">
         <v>7</v>
       </c>
-      <c r="E47" s="41"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -7282,17 +7272,17 @@
       <c r="N47" s="28"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="66"/>
-      <c r="B48" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="64">
+      <c r="A48" s="65"/>
+      <c r="B48" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="63">
         <v>1</v>
       </c>
-      <c r="E48" s="41"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -7304,17 +7294,17 @@
       <c r="N48" s="28"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="66"/>
-      <c r="B49" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="64">
+      <c r="A49" s="65"/>
+      <c r="B49" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="63">
         <v>4</v>
       </c>
-      <c r="E49" s="41"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -7326,17 +7316,17 @@
       <c r="N49" s="28"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="66"/>
-      <c r="B50" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="64">
+      <c r="A50" s="65"/>
+      <c r="B50" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="63">
         <v>57</v>
       </c>
-      <c r="E50" s="41"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -7348,17 +7338,17 @@
       <c r="N50" s="28"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="66"/>
-      <c r="B51" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="64">
+      <c r="A51" s="65"/>
+      <c r="B51" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="63">
         <v>3</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
@@ -7370,17 +7360,17 @@
       <c r="N51" s="28"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="66"/>
-      <c r="B52" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="64">
+      <c r="A52" s="65"/>
+      <c r="B52" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="63">
         <v>1</v>
       </c>
-      <c r="E52" s="41"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
@@ -7392,17 +7382,17 @@
       <c r="N52" s="28"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A53" s="66"/>
-      <c r="B53" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="64">
+      <c r="A53" s="65"/>
+      <c r="B53" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="63">
         <v>7</v>
       </c>
-      <c r="E53" s="41"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
@@ -7414,17 +7404,17 @@
       <c r="N53" s="28"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A54" s="66"/>
-      <c r="B54" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="64">
+      <c r="A54" s="65"/>
+      <c r="B54" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="63">
         <v>4</v>
       </c>
-      <c r="E54" s="41"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
@@ -7436,17 +7426,17 @@
       <c r="N54" s="28"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A55" s="66"/>
-      <c r="B55" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="64">
+      <c r="A55" s="65"/>
+      <c r="B55" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="63">
         <v>2</v>
       </c>
-      <c r="E55" s="41"/>
+      <c r="E55" s="40"/>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
@@ -7458,17 +7448,17 @@
       <c r="N55" s="28"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A56" s="66"/>
-      <c r="B56" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="64">
+      <c r="A56" s="65"/>
+      <c r="B56" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="63">
         <v>6</v>
       </c>
-      <c r="E56" s="41"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="28"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
@@ -7480,17 +7470,17 @@
       <c r="N56" s="28"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A57" s="66"/>
-      <c r="B57" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="64">
+      <c r="A57" s="65"/>
+      <c r="B57" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="63">
         <v>8</v>
       </c>
-      <c r="E57" s="41"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
@@ -7502,17 +7492,17 @@
       <c r="N57" s="28"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="66"/>
-      <c r="B58" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="64">
+      <c r="A58" s="65"/>
+      <c r="B58" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="63">
         <v>2</v>
       </c>
-      <c r="E58" s="41"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
@@ -7524,17 +7514,17 @@
       <c r="N58" s="28"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="64">
+      <c r="A59" s="65"/>
+      <c r="B59" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="63">
         <v>2</v>
       </c>
-      <c r="E59" s="41"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
@@ -7546,17 +7536,17 @@
       <c r="N59" s="28"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A60" s="66"/>
-      <c r="B60" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="64">
+      <c r="A60" s="65"/>
+      <c r="B60" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="63">
         <v>6</v>
       </c>
-      <c r="E60" s="41"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
@@ -7568,17 +7558,17 @@
       <c r="N60" s="28"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A61" s="66"/>
-      <c r="B61" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="64">
+      <c r="A61" s="65"/>
+      <c r="B61" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="63">
         <v>1</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
@@ -7590,11 +7580,11 @@
       <c r="N61" s="28"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A62" s="66"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="41"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
@@ -7606,11 +7596,11 @@
       <c r="N62" s="28"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A63" s="66"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="41"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
@@ -7622,11 +7612,11 @@
       <c r="N63" s="28"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A64" s="66"/>
-      <c r="B64" s="41"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="41"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="28"/>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
@@ -7638,11 +7628,11 @@
       <c r="N64" s="28"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A65" s="66"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="28"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="41"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
@@ -7654,11 +7644,11 @@
       <c r="N65" s="28"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A66" s="66"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="41"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="28"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
@@ -7670,11 +7660,11 @@
       <c r="N66" s="28"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A67" s="66"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="41"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="40"/>
       <c r="F67" s="28"/>
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
@@ -7686,11 +7676,11 @@
       <c r="N67" s="28"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A68" s="66"/>
-      <c r="B68" s="41"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="28"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="41"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="28"/>
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
@@ -7702,11 +7692,11 @@
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A69" s="66"/>
-      <c r="B69" s="41"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="28"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="41"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="28"/>
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
@@ -7718,11 +7708,11 @@
       <c r="N69" s="28"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A70" s="66"/>
-      <c r="B70" s="41"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="28"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="41"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="40"/>
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
@@ -7734,11 +7724,11 @@
       <c r="N70" s="28"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A71" s="66"/>
-      <c r="B71" s="41"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="28"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="41"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="40"/>
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
@@ -7750,11 +7740,11 @@
       <c r="N71" s="28"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A72" s="66"/>
-      <c r="B72" s="41"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="28"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="41"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="28"/>
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
@@ -7766,11 +7756,11 @@
       <c r="N72" s="28"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="66"/>
-      <c r="B73" s="41"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="41"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="28"/>
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
@@ -7782,11 +7772,11 @@
       <c r="N73" s="28"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="66"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="41"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="40"/>
       <c r="F74" s="28"/>
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
@@ -7798,11 +7788,11 @@
       <c r="N74" s="28"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="66"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="41"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
@@ -7814,11 +7804,11 @@
       <c r="N75" s="28"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="66"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="41"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
@@ -7830,11 +7820,11 @@
       <c r="N76" s="28"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A77" s="66"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="41"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
@@ -7846,11 +7836,11 @@
       <c r="N77" s="28"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A78" s="66"/>
-      <c r="B78" s="41"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="41"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="28"/>
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
@@ -7862,11 +7852,11 @@
       <c r="N78" s="28"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A79" s="66"/>
-      <c r="B79" s="41"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="28"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="41"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
@@ -7878,11 +7868,11 @@
       <c r="N79" s="28"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A80" s="66"/>
-      <c r="B80" s="41"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="28"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="41"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="28"/>
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
@@ -7894,11 +7884,11 @@
       <c r="N80" s="28"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="66"/>
-      <c r="B81" s="41"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="28"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="41"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
@@ -7910,11 +7900,11 @@
       <c r="N81" s="28"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A82" s="66"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="28"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="41"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
@@ -7926,11 +7916,11 @@
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A83" s="66"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="28"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="41"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="28"/>
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
@@ -7942,11 +7932,11 @@
       <c r="N83" s="28"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A84" s="66"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="28"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="41"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="28"/>
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
@@ -7958,11 +7948,11 @@
       <c r="N84" s="28"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A85" s="66"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="28"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="41"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
@@ -7974,11 +7964,11 @@
       <c r="N85" s="28"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A86" s="66"/>
-      <c r="B86" s="41"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="28"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="41"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
@@ -7990,11 +7980,11 @@
       <c r="N86" s="28"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A87" s="66"/>
-      <c r="B87" s="41"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="28"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="41"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
@@ -8006,11 +7996,11 @@
       <c r="N87" s="28"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A88" s="66"/>
-      <c r="B88" s="41"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="28"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="41"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="40"/>
       <c r="F88" s="28"/>
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
@@ -8022,11 +8012,11 @@
       <c r="N88" s="28"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A89" s="66"/>
-      <c r="B89" s="41"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="28"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="41"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="40"/>
       <c r="F89" s="28"/>
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
@@ -8038,11 +8028,11 @@
       <c r="N89" s="28"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A90" s="66"/>
-      <c r="B90" s="41"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="28"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="41"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="40"/>
       <c r="F90" s="28"/>
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
@@ -8054,11 +8044,11 @@
       <c r="N90" s="28"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A91" s="66"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="28"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="41"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="40"/>
       <c r="F91" s="28"/>
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
@@ -8070,11 +8060,11 @@
       <c r="N91" s="28"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A92" s="66"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="28"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="41"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="40"/>
       <c r="F92" s="28"/>
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
@@ -8086,11 +8076,11 @@
       <c r="N92" s="28"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A93" s="66"/>
-      <c r="B93" s="41"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="28"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="41"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
@@ -8102,11 +8092,11 @@
       <c r="N93" s="28"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A94" s="66"/>
-      <c r="B94" s="41"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="28"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="41"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="28"/>
       <c r="G94" s="28"/>
       <c r="H94" s="28"/>
@@ -8118,11 +8108,11 @@
       <c r="N94" s="28"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A95" s="66"/>
-      <c r="B95" s="41"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="28"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="41"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
@@ -8134,11 +8124,11 @@
       <c r="N95" s="28"/>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A96" s="66"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="28"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="41"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
@@ -8150,11 +8140,11 @@
       <c r="N96" s="28"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A97" s="66"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="65"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="28"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="41"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="28"/>
       <c r="G97" s="28"/>
       <c r="H97" s="28"/>
@@ -8166,11 +8156,11 @@
       <c r="N97" s="28"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A98" s="66"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="28"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="41"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="40"/>
       <c r="F98" s="28"/>
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
@@ -8182,11 +8172,11 @@
       <c r="N98" s="28"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A99" s="66"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="28"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="41"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="28"/>
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
@@ -8198,11 +8188,11 @@
       <c r="N99" s="28"/>
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A100" s="67"/>
-      <c r="B100" s="41"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="28"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="41"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="40"/>
       <c r="F100" s="28"/>
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>

--- a/spec/support/roTemplateNotFollowed.xlsx
+++ b/spec/support/roTemplateNotFollowed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhaisajoness/Documents/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{68C061C9-E8C1-4C49-AA2E-0ACEE2035174}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3F925CC3-25AC-184C-AD0B-DF0954CBDB79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-680" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
     <t xml:space="preserve">Des Moines, IA </t>
   </si>
   <si>
-    <t>Regional Office Non-Availability Dates in Date Range</t>
+    <t xml:space="preserve">Regional Office Non-Availability Dates in Date </t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2321,7 @@
   <dimension ref="A1:IV50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>

--- a/spec/support/roTemplateNotFollowed.xlsx
+++ b/spec/support/roTemplateNotFollowed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/Desktop/tmp/compare/redone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17D94FD-81B6-5141-822D-7DDE91D6D734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C3F121-ECDD-4741-90D9-620D0709FF3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17940" yWindow="460" windowWidth="20460" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
   <si>
     <t>Example</t>
   </si>
@@ -381,10 +381,28 @@
     <t>Allocation of Regional Office Video Hearings</t>
   </si>
   <si>
-    <t>Number of Hearing Days Allocated in Date Range</t>
-  </si>
-  <si>
     <t xml:space="preserve">Des Moines, IA </t>
+  </si>
+  <si>
+    <t>Virtual Days</t>
+  </si>
+  <si>
+    <t># of Video Days</t>
+  </si>
+  <si>
+    <t># of Virtual Days</t>
+  </si>
+  <si>
+    <t>Number of Time Slots</t>
+  </si>
+  <si>
+    <t>Length of Time Slots (Minutes)</t>
+  </si>
+  <si>
+    <t>Start Time (Eastern)</t>
+  </si>
+  <si>
+    <t>8:30</t>
   </si>
 </sst>
 </file>
@@ -394,7 +412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -404,16 +422,19 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -425,41 +446,84 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Source Sans Pro"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,8 +572,38 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -746,19 +840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="12"/>
       </left>
@@ -826,71 +907,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -941,11 +957,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,13 +1173,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,43 +1194,22 @@
     <xf numFmtId="14" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,12 +1222,53 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2266,9 +2461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
@@ -2279,24 +2474,24 @@
     <col min="7" max="254" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="56" customHeight="1">
+    <row r="1" spans="1:57" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2342,7 +2537,7 @@
       <c r="BD1" s="4"/>
       <c r="BE1" s="5"/>
     </row>
-    <row r="2" spans="1:57" ht="39" customHeight="1">
+    <row r="2" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2515,7 +2710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="34" customHeight="1">
+    <row r="3" spans="1:57" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2688,7 +2883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="32" customHeight="1">
+    <row r="4" spans="1:57" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -2861,7 +3056,7 @@
         <v>43114</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="17" customHeight="1">
+    <row r="5" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="19">
         <v>43497</v>
@@ -3032,7 +3227,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="17" customHeight="1">
+    <row r="6" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="22">
         <v>43540</v>
@@ -3203,7 +3398,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="17" customHeight="1">
+    <row r="7" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="23">
         <v>43576</v>
@@ -3374,7 +3569,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="17" customHeight="1">
+    <row r="8" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="24">
         <v>43604</v>
@@ -3435,7 +3630,7 @@
       <c r="BD8" s="27"/>
       <c r="BE8" s="27"/>
     </row>
-    <row r="9" spans="1:57" ht="17" customHeight="1">
+    <row r="9" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
@@ -3494,7 +3689,7 @@
       <c r="BD9" s="27"/>
       <c r="BE9" s="27"/>
     </row>
-    <row r="10" spans="1:57" ht="17" customHeight="1">
+    <row r="10" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="25"/>
       <c r="C10" s="30"/>
@@ -3553,7 +3748,7 @@
       <c r="BD10" s="26"/>
       <c r="BE10" s="26"/>
     </row>
-    <row r="11" spans="1:57" ht="17" customHeight="1">
+    <row r="11" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="31"/>
       <c r="C11" s="29"/>
@@ -3612,7 +3807,7 @@
       <c r="BD11" s="29"/>
       <c r="BE11" s="32"/>
     </row>
-    <row r="12" spans="1:57" ht="17" customHeight="1">
+    <row r="12" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="33"/>
       <c r="C12" s="30"/>
@@ -3671,7 +3866,7 @@
       <c r="BD12" s="30"/>
       <c r="BE12" s="30"/>
     </row>
-    <row r="13" spans="1:57" ht="17" customHeight="1">
+    <row r="13" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="31"/>
       <c r="C13" s="29"/>
@@ -3730,7 +3925,7 @@
       <c r="BD13" s="29"/>
       <c r="BE13" s="32"/>
     </row>
-    <row r="14" spans="1:57" ht="17" customHeight="1">
+    <row r="14" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="33"/>
       <c r="C14" s="30"/>
@@ -3789,7 +3984,7 @@
       <c r="BD14" s="30"/>
       <c r="BE14" s="30"/>
     </row>
-    <row r="15" spans="1:57" ht="17" customHeight="1">
+    <row r="15" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="31"/>
       <c r="C15" s="29"/>
@@ -3848,7 +4043,7 @@
       <c r="BD15" s="29"/>
       <c r="BE15" s="32"/>
     </row>
-    <row r="16" spans="1:57" ht="17" customHeight="1">
+    <row r="16" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="33"/>
       <c r="C16" s="30"/>
@@ -3907,7 +4102,7 @@
       <c r="BD16" s="30"/>
       <c r="BE16" s="30"/>
     </row>
-    <row r="17" spans="1:57" ht="17" customHeight="1">
+    <row r="17" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="31"/>
       <c r="C17" s="29"/>
@@ -3966,7 +4161,7 @@
       <c r="BD17" s="29"/>
       <c r="BE17" s="32"/>
     </row>
-    <row r="18" spans="1:57" ht="17" customHeight="1">
+    <row r="18" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="33"/>
       <c r="C18" s="30"/>
@@ -4025,7 +4220,7 @@
       <c r="BD18" s="30"/>
       <c r="BE18" s="30"/>
     </row>
-    <row r="19" spans="1:57" ht="17" customHeight="1">
+    <row r="19" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="31"/>
       <c r="C19" s="29"/>
@@ -4084,7 +4279,7 @@
       <c r="BD19" s="29"/>
       <c r="BE19" s="32"/>
     </row>
-    <row r="20" spans="1:57" ht="17" customHeight="1">
+    <row r="20" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="33"/>
       <c r="C20" s="30"/>
@@ -4143,7 +4338,7 @@
       <c r="BD20" s="30"/>
       <c r="BE20" s="30"/>
     </row>
-    <row r="21" spans="1:57" ht="17" customHeight="1">
+    <row r="21" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="31"/>
       <c r="C21" s="29"/>
@@ -4202,7 +4397,7 @@
       <c r="BD21" s="29"/>
       <c r="BE21" s="32"/>
     </row>
-    <row r="22" spans="1:57" ht="17" customHeight="1">
+    <row r="22" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="33"/>
       <c r="C22" s="30"/>
@@ -4261,7 +4456,7 @@
       <c r="BD22" s="30"/>
       <c r="BE22" s="30"/>
     </row>
-    <row r="23" spans="1:57" ht="17" customHeight="1">
+    <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="31"/>
       <c r="C23" s="29"/>
@@ -4320,7 +4515,7 @@
       <c r="BD23" s="29"/>
       <c r="BE23" s="32"/>
     </row>
-    <row r="24" spans="1:57" ht="17" customHeight="1">
+    <row r="24" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="33"/>
       <c r="C24" s="30"/>
@@ -4379,7 +4574,7 @@
       <c r="BD24" s="30"/>
       <c r="BE24" s="30"/>
     </row>
-    <row r="25" spans="1:57" ht="17" customHeight="1">
+    <row r="25" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="31"/>
       <c r="C25" s="29"/>
@@ -4438,7 +4633,7 @@
       <c r="BD25" s="29"/>
       <c r="BE25" s="32"/>
     </row>
-    <row r="26" spans="1:57" ht="17" customHeight="1">
+    <row r="26" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="33"/>
       <c r="C26" s="30"/>
@@ -4497,7 +4692,7 @@
       <c r="BD26" s="30"/>
       <c r="BE26" s="30"/>
     </row>
-    <row r="27" spans="1:57" ht="17" customHeight="1">
+    <row r="27" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="31"/>
       <c r="C27" s="29"/>
@@ -4556,7 +4751,7 @@
       <c r="BD27" s="29"/>
       <c r="BE27" s="32"/>
     </row>
-    <row r="28" spans="1:57" ht="17" customHeight="1">
+    <row r="28" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="33"/>
       <c r="C28" s="30"/>
@@ -4615,7 +4810,7 @@
       <c r="BD28" s="30"/>
       <c r="BE28" s="30"/>
     </row>
-    <row r="29" spans="1:57" ht="17" customHeight="1">
+    <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="31"/>
       <c r="C29" s="29"/>
@@ -4674,7 +4869,7 @@
       <c r="BD29" s="29"/>
       <c r="BE29" s="32"/>
     </row>
-    <row r="30" spans="1:57" ht="17" customHeight="1">
+    <row r="30" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="33"/>
       <c r="C30" s="30"/>
@@ -4733,7 +4928,7 @@
       <c r="BD30" s="30"/>
       <c r="BE30" s="30"/>
     </row>
-    <row r="31" spans="1:57" ht="17" customHeight="1">
+    <row r="31" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="31"/>
       <c r="C31" s="29"/>
@@ -4792,7 +4987,7 @@
       <c r="BD31" s="29"/>
       <c r="BE31" s="32"/>
     </row>
-    <row r="32" spans="1:57" ht="17" customHeight="1">
+    <row r="32" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="33"/>
       <c r="C32" s="30"/>
@@ -4851,7 +5046,7 @@
       <c r="BD32" s="30"/>
       <c r="BE32" s="30"/>
     </row>
-    <row r="33" spans="1:57" ht="17" customHeight="1">
+    <row r="33" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="31"/>
       <c r="C33" s="29"/>
@@ -4910,7 +5105,7 @@
       <c r="BD33" s="29"/>
       <c r="BE33" s="32"/>
     </row>
-    <row r="34" spans="1:57" ht="17" customHeight="1">
+    <row r="34" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="33"/>
       <c r="C34" s="30"/>
@@ -4969,7 +5164,7 @@
       <c r="BD34" s="30"/>
       <c r="BE34" s="30"/>
     </row>
-    <row r="35" spans="1:57" ht="17" customHeight="1">
+    <row r="35" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="31"/>
       <c r="C35" s="29"/>
@@ -5028,7 +5223,7 @@
       <c r="BD35" s="29"/>
       <c r="BE35" s="32"/>
     </row>
-    <row r="36" spans="1:57" ht="17" customHeight="1">
+    <row r="36" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="33"/>
       <c r="C36" s="30"/>
@@ -5087,7 +5282,7 @@
       <c r="BD36" s="30"/>
       <c r="BE36" s="30"/>
     </row>
-    <row r="37" spans="1:57" ht="17" customHeight="1">
+    <row r="37" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="31"/>
       <c r="C37" s="29"/>
@@ -5146,7 +5341,7 @@
       <c r="BD37" s="29"/>
       <c r="BE37" s="32"/>
     </row>
-    <row r="38" spans="1:57" ht="17" customHeight="1">
+    <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="33"/>
       <c r="C38" s="30"/>
@@ -5205,7 +5400,7 @@
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
     </row>
-    <row r="39" spans="1:57" ht="17" customHeight="1">
+    <row r="39" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="31"/>
       <c r="C39" s="29"/>
@@ -5264,7 +5459,7 @@
       <c r="BD39" s="29"/>
       <c r="BE39" s="32"/>
     </row>
-    <row r="40" spans="1:57" ht="17" customHeight="1">
+    <row r="40" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="33"/>
       <c r="C40" s="30"/>
@@ -5323,7 +5518,7 @@
       <c r="BD40" s="30"/>
       <c r="BE40" s="30"/>
     </row>
-    <row r="41" spans="1:57" ht="17" customHeight="1">
+    <row r="41" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="31"/>
       <c r="C41" s="29"/>
@@ -5382,7 +5577,7 @@
       <c r="BD41" s="29"/>
       <c r="BE41" s="32"/>
     </row>
-    <row r="42" spans="1:57" ht="17" customHeight="1">
+    <row r="42" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="33"/>
       <c r="C42" s="30"/>
@@ -5441,7 +5636,7 @@
       <c r="BD42" s="30"/>
       <c r="BE42" s="30"/>
     </row>
-    <row r="43" spans="1:57" ht="17" customHeight="1">
+    <row r="43" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="31"/>
       <c r="C43" s="29"/>
@@ -5500,7 +5695,7 @@
       <c r="BD43" s="29"/>
       <c r="BE43" s="32"/>
     </row>
-    <row r="44" spans="1:57" ht="17" customHeight="1">
+    <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44" s="33"/>
       <c r="C44" s="30"/>
@@ -5559,7 +5754,7 @@
       <c r="BD44" s="30"/>
       <c r="BE44" s="30"/>
     </row>
-    <row r="45" spans="1:57" ht="17" customHeight="1">
+    <row r="45" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="31"/>
       <c r="C45" s="29"/>
@@ -5618,7 +5813,7 @@
       <c r="BD45" s="29"/>
       <c r="BE45" s="32"/>
     </row>
-    <row r="46" spans="1:57" ht="17" customHeight="1">
+    <row r="46" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="33"/>
       <c r="C46" s="30"/>
@@ -5677,7 +5872,7 @@
       <c r="BD46" s="30"/>
       <c r="BE46" s="30"/>
     </row>
-    <row r="47" spans="1:57" ht="17" customHeight="1">
+    <row r="47" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
       <c r="B47" s="31"/>
       <c r="C47" s="29"/>
@@ -5736,7 +5931,7 @@
       <c r="BD47" s="29"/>
       <c r="BE47" s="32"/>
     </row>
-    <row r="48" spans="1:57" ht="17" customHeight="1">
+    <row r="48" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="33"/>
       <c r="C48" s="30"/>
@@ -5795,7 +5990,7 @@
       <c r="BD48" s="30"/>
       <c r="BE48" s="30"/>
     </row>
-    <row r="49" spans="1:57" ht="17" customHeight="1">
+    <row r="49" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="31"/>
       <c r="C49" s="29"/>
@@ -5854,7 +6049,7 @@
       <c r="BD49" s="29"/>
       <c r="BE49" s="32"/>
     </row>
-    <row r="50" spans="1:57" ht="17" customHeight="1">
+    <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
@@ -5933,23 +6128,23 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="37" customWidth="1"/>
     <col min="2" max="2" width="48" style="37" customWidth="1"/>
     <col min="3" max="256" width="8.6640625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="38"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1">
+    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
       <c r="B2" s="40" t="s">
         <v>116</v>
@@ -5958,7 +6153,7 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="36.75" customHeight="1">
+    <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
@@ -5969,7 +6164,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="17">
         <v>43114</v>
@@ -5978,7 +6173,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="21">
         <v>43115</v>
@@ -5987,7 +6182,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="21">
         <v>43225</v>
@@ -5996,7 +6191,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="21">
         <v>43191</v>
@@ -6005,21 +6200,21 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -6040,13 +6235,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV97"/>
+  <dimension ref="A1:IV98"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="44" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="44" customWidth="1"/>
@@ -6056,39 +6251,35 @@
     <col min="6" max="256" width="11" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60" customHeight="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-    </row>
-    <row r="2" spans="1:14" ht="47" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+    </row>
+    <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -6096,23 +6287,29 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1">
-      <c r="A3" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="54">
-        <v>10</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+    <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="67"/>
+      <c r="B3" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>125</v>
+      </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -6120,21 +6317,31 @@
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="58">
-        <v>4</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+    <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="75">
+        <v>10</v>
+      </c>
+      <c r="E4" s="76">
+        <v>50</v>
+      </c>
+      <c r="F4" s="76">
+        <v>8</v>
+      </c>
+      <c r="G4" s="76">
+        <v>60</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
@@ -6142,21 +6349,29 @@
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="58">
-        <v>10</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="49">
+        <v>4</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
@@ -6164,21 +6379,29 @@
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="58">
-        <v>11</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50"/>
+      <c r="B6" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="49">
+        <v>10</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
@@ -6186,21 +6409,29 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="58">
-        <v>4</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
+      <c r="B7" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="49">
+        <v>11</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -6208,21 +6439,29 @@
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="58">
-        <v>6</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
+      <c r="B8" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="49">
+        <v>4</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
@@ -6230,21 +6469,29 @@
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="58">
-        <v>3</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
+      <c r="B9" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="49">
+        <v>6</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
@@ -6252,21 +6499,29 @@
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="58">
-        <v>1</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="52"/>
+      <c r="B10" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="49">
+        <v>3</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -6274,21 +6529,29 @@
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="58">
-        <v>6</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
+      <c r="B11" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="49">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -6296,21 +6559,29 @@
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="58">
-        <v>8</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="49">
+        <v>6</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -6318,21 +6589,29 @@
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="58">
-        <v>9</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="49">
+        <v>8</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -6340,21 +6619,29 @@
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="58">
-        <v>5</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="49">
+        <v>9</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -6362,21 +6649,29 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="58">
-        <v>4</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
+      <c r="B15" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="49">
+        <v>5</v>
+      </c>
+      <c r="E15" s="38">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27">
+        <v>0</v>
+      </c>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -6384,21 +6679,29 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="58">
-        <v>2</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="49">
+        <v>4</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -6406,21 +6709,29 @@
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="58">
-        <v>5</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="49">
+        <v>2</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -6428,21 +6739,29 @@
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="58">
-        <v>7</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="49">
+        <v>5</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -6450,21 +6769,29 @@
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="58">
-        <v>15</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="49">
+        <v>7</v>
+      </c>
+      <c r="E19" s="38">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
+      <c r="H19" s="27">
+        <v>0</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -6472,21 +6799,29 @@
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="58">
-        <v>3</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="49">
+        <v>15</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27">
+        <v>0</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -6494,21 +6829,29 @@
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="58">
-        <v>7</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="49">
+        <v>3</v>
+      </c>
+      <c r="E21" s="38">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27">
+        <v>0</v>
+      </c>
+      <c r="H21" s="27">
+        <v>0</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -6516,21 +6859,29 @@
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="58">
-        <v>0</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="49">
+        <v>7</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <v>0</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="27">
+        <v>0</v>
+      </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -6538,21 +6889,29 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="61"/>
-      <c r="B23" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="58">
-        <v>3</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="49">
+        <v>0</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
+        <v>0</v>
+      </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -6560,21 +6919,29 @@
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="58">
-        <v>7</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="49">
+        <v>3</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>0</v>
+      </c>
+      <c r="H24" s="27">
+        <v>0</v>
+      </c>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -6582,21 +6949,29 @@
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="58">
-        <v>3</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
+      <c r="B25" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="49">
+        <v>7</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0</v>
+      </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
@@ -6604,21 +6979,29 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="58">
-        <v>2</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="49">
+        <v>3</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27">
+        <v>0</v>
+      </c>
+      <c r="H26" s="27">
+        <v>0</v>
+      </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
@@ -6626,21 +7009,29 @@
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="58">
-        <v>5</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="49">
+        <v>2</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="27">
+        <v>0</v>
+      </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
@@ -6648,21 +7039,29 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="58">
-        <v>7</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="49">
+        <v>5</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <v>0</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0</v>
+      </c>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -6670,21 +7069,29 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="58">
-        <v>4</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
+      <c r="B29" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="49">
+        <v>7</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27">
+        <v>0</v>
+      </c>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
@@ -6692,21 +7099,29 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="61"/>
-      <c r="B30" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="58">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="49">
         <v>4</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="38">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0</v>
+      </c>
+      <c r="H30" s="27">
+        <v>0</v>
+      </c>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
@@ -6714,21 +7129,29 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="58">
-        <v>2</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+      <c r="B31" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="49">
+        <v>4</v>
+      </c>
+      <c r="E31" s="38">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0</v>
+      </c>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
@@ -6736,21 +7159,29 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="58">
-        <v>5</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="49">
+        <v>2</v>
+      </c>
+      <c r="E32" s="38">
+        <v>0</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0</v>
+      </c>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
@@ -6758,21 +7189,29 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="61"/>
-      <c r="B33" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="58">
-        <v>7</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="49">
+        <v>5</v>
+      </c>
+      <c r="E33" s="38">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0</v>
+      </c>
+      <c r="H33" s="27">
+        <v>0</v>
+      </c>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -6780,21 +7219,29 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="58">
-        <v>9</v>
-      </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="49">
+        <v>7</v>
+      </c>
+      <c r="E34" s="38">
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
+        <v>0</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0</v>
+      </c>
+      <c r="H34" s="27">
+        <v>0</v>
+      </c>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -6802,21 +7249,29 @@
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="61"/>
-      <c r="B35" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="58">
-        <v>4</v>
-      </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
+      <c r="B35" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="49">
+        <v>9</v>
+      </c>
+      <c r="E35" s="38">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27">
+        <v>0</v>
+      </c>
+      <c r="H35" s="27">
+        <v>0</v>
+      </c>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -6824,21 +7279,29 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="61"/>
-      <c r="B36" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="58">
-        <v>2</v>
-      </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
+      <c r="B36" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="49">
+        <v>4</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0</v>
+      </c>
+      <c r="G36" s="27">
+        <v>0</v>
+      </c>
+      <c r="H36" s="27">
+        <v>0</v>
+      </c>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
@@ -6846,21 +7309,29 @@
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="61"/>
-      <c r="B37" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="58">
-        <v>6</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
+      <c r="B37" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="49">
+        <v>2</v>
+      </c>
+      <c r="E37" s="38">
+        <v>0</v>
+      </c>
+      <c r="F37" s="27">
+        <v>0</v>
+      </c>
+      <c r="G37" s="27">
+        <v>0</v>
+      </c>
+      <c r="H37" s="27">
+        <v>0</v>
+      </c>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -6868,21 +7339,29 @@
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="61"/>
-      <c r="B38" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="58">
-        <v>3</v>
-      </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="49">
+        <v>6</v>
+      </c>
+      <c r="E38" s="38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="27">
+        <v>0</v>
+      </c>
+      <c r="G38" s="27">
+        <v>0</v>
+      </c>
+      <c r="H38" s="27">
+        <v>0</v>
+      </c>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
@@ -6890,21 +7369,29 @@
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="61"/>
-      <c r="B39" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="58">
-        <v>2</v>
-      </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="49">
+        <v>3</v>
+      </c>
+      <c r="E39" s="38">
+        <v>0</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0</v>
+      </c>
+      <c r="G39" s="27">
+        <v>0</v>
+      </c>
+      <c r="H39" s="27">
+        <v>0</v>
+      </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
@@ -6912,21 +7399,29 @@
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="61"/>
-      <c r="B40" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="58">
-        <v>6</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
+      <c r="B40" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="49">
+        <v>2</v>
+      </c>
+      <c r="E40" s="38">
+        <v>0</v>
+      </c>
+      <c r="F40" s="27">
+        <v>0</v>
+      </c>
+      <c r="G40" s="27">
+        <v>0</v>
+      </c>
+      <c r="H40" s="27">
+        <v>0</v>
+      </c>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
@@ -6934,21 +7429,29 @@
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="61"/>
-      <c r="B41" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="58">
-        <v>5</v>
-      </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="49">
+        <v>6</v>
+      </c>
+      <c r="E41" s="38">
+        <v>0</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0</v>
+      </c>
+      <c r="H41" s="27">
+        <v>0</v>
+      </c>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
@@ -6956,21 +7459,29 @@
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="61"/>
-      <c r="B42" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="58">
-        <v>3</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
+      <c r="B42" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="49">
+        <v>5</v>
+      </c>
+      <c r="E42" s="38">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27">
+        <v>0</v>
+      </c>
+      <c r="G42" s="27">
+        <v>0</v>
+      </c>
+      <c r="H42" s="27">
+        <v>0</v>
+      </c>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
@@ -6978,21 +7489,29 @@
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="61"/>
-      <c r="B43" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="58">
-        <v>5</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52"/>
+      <c r="B43" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="49">
+        <v>3</v>
+      </c>
+      <c r="E43" s="38">
+        <v>0</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0</v>
+      </c>
+      <c r="G43" s="27">
+        <v>0</v>
+      </c>
+      <c r="H43" s="27">
+        <v>0</v>
+      </c>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
@@ -7000,21 +7519,29 @@
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="61"/>
-      <c r="B44" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="58">
-        <v>36</v>
-      </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="52"/>
+      <c r="B44" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="49">
+        <v>5</v>
+      </c>
+      <c r="E44" s="38">
+        <v>0</v>
+      </c>
+      <c r="F44" s="27">
+        <v>0</v>
+      </c>
+      <c r="G44" s="27">
+        <v>0</v>
+      </c>
+      <c r="H44" s="27">
+        <v>0</v>
+      </c>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
@@ -7022,21 +7549,29 @@
       <c r="M44" s="27"/>
       <c r="N44" s="27"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="61"/>
-      <c r="B45" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="58">
-        <v>7</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="52"/>
+      <c r="B45" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="49">
+        <v>36</v>
+      </c>
+      <c r="E45" s="38">
+        <v>0</v>
+      </c>
+      <c r="F45" s="27">
+        <v>0</v>
+      </c>
+      <c r="G45" s="27">
+        <v>0</v>
+      </c>
+      <c r="H45" s="27">
+        <v>0</v>
+      </c>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
@@ -7044,21 +7579,29 @@
       <c r="M45" s="27"/>
       <c r="N45" s="27"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A46" s="61"/>
-      <c r="B46" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="58">
-        <v>1</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="52"/>
+      <c r="B46" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="49">
+        <v>7</v>
+      </c>
+      <c r="E46" s="38">
+        <v>0</v>
+      </c>
+      <c r="F46" s="27">
+        <v>0</v>
+      </c>
+      <c r="G46" s="27">
+        <v>0</v>
+      </c>
+      <c r="H46" s="27">
+        <v>0</v>
+      </c>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
@@ -7066,21 +7609,29 @@
       <c r="M46" s="27"/>
       <c r="N46" s="27"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="58">
-        <v>4</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="52"/>
+      <c r="B47" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="49">
+        <v>1</v>
+      </c>
+      <c r="E47" s="38">
+        <v>0</v>
+      </c>
+      <c r="F47" s="27">
+        <v>0</v>
+      </c>
+      <c r="G47" s="27">
+        <v>0</v>
+      </c>
+      <c r="H47" s="27">
+        <v>0</v>
+      </c>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
@@ -7088,21 +7639,29 @@
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="61"/>
-      <c r="B48" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="58">
-        <v>57</v>
-      </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
+      <c r="B48" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="49">
+        <v>4</v>
+      </c>
+      <c r="E48" s="38">
+        <v>0</v>
+      </c>
+      <c r="F48" s="27">
+        <v>0</v>
+      </c>
+      <c r="G48" s="27">
+        <v>0</v>
+      </c>
+      <c r="H48" s="27">
+        <v>0</v>
+      </c>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
       <c r="K48" s="27"/>
@@ -7110,21 +7669,29 @@
       <c r="M48" s="27"/>
       <c r="N48" s="27"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="61"/>
-      <c r="B49" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="58">
-        <v>3</v>
-      </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="52"/>
+      <c r="B49" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="49">
+        <v>57</v>
+      </c>
+      <c r="E49" s="38">
+        <v>0</v>
+      </c>
+      <c r="F49" s="27">
+        <v>0</v>
+      </c>
+      <c r="G49" s="27">
+        <v>0</v>
+      </c>
+      <c r="H49" s="27">
+        <v>0</v>
+      </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
@@ -7132,21 +7699,29 @@
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="61"/>
-      <c r="B50" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="58">
-        <v>1</v>
-      </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="52"/>
+      <c r="B50" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="49">
+        <v>3</v>
+      </c>
+      <c r="E50" s="38">
+        <v>0</v>
+      </c>
+      <c r="F50" s="27">
+        <v>0</v>
+      </c>
+      <c r="G50" s="27">
+        <v>0</v>
+      </c>
+      <c r="H50" s="27">
+        <v>0</v>
+      </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
@@ -7154,21 +7729,29 @@
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="61"/>
-      <c r="B51" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="58">
-        <v>7</v>
-      </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="52"/>
+      <c r="B51" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="49">
+        <v>1</v>
+      </c>
+      <c r="E51" s="38">
+        <v>0</v>
+      </c>
+      <c r="F51" s="27">
+        <v>0</v>
+      </c>
+      <c r="G51" s="27">
+        <v>0</v>
+      </c>
+      <c r="H51" s="27">
+        <v>0</v>
+      </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27"/>
@@ -7176,21 +7759,29 @@
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="61"/>
-      <c r="B52" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="58">
-        <v>4</v>
-      </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="52"/>
+      <c r="B52" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="49">
+        <v>7</v>
+      </c>
+      <c r="E52" s="38">
+        <v>0</v>
+      </c>
+      <c r="F52" s="27">
+        <v>0</v>
+      </c>
+      <c r="G52" s="27">
+        <v>0</v>
+      </c>
+      <c r="H52" s="27">
+        <v>0</v>
+      </c>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
       <c r="K52" s="27"/>
@@ -7198,21 +7789,29 @@
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="58">
-        <v>2</v>
-      </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="52"/>
+      <c r="B53" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="49">
+        <v>4</v>
+      </c>
+      <c r="E53" s="38">
+        <v>0</v>
+      </c>
+      <c r="F53" s="27">
+        <v>0</v>
+      </c>
+      <c r="G53" s="27">
+        <v>0</v>
+      </c>
+      <c r="H53" s="27">
+        <v>0</v>
+      </c>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
@@ -7220,21 +7819,29 @@
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A54" s="61"/>
-      <c r="B54" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="58">
-        <v>6</v>
-      </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="52"/>
+      <c r="B54" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="49">
+        <v>2</v>
+      </c>
+      <c r="E54" s="38">
+        <v>0</v>
+      </c>
+      <c r="F54" s="27">
+        <v>0</v>
+      </c>
+      <c r="G54" s="27">
+        <v>0</v>
+      </c>
+      <c r="H54" s="27">
+        <v>0</v>
+      </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
@@ -7242,21 +7849,29 @@
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A55" s="61"/>
-      <c r="B55" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="58">
-        <v>2</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="52"/>
+      <c r="B55" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="49">
+        <v>6</v>
+      </c>
+      <c r="E55" s="38">
+        <v>0</v>
+      </c>
+      <c r="F55" s="27">
+        <v>0</v>
+      </c>
+      <c r="G55" s="27">
+        <v>0</v>
+      </c>
+      <c r="H55" s="27">
+        <v>0</v>
+      </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
@@ -7264,21 +7879,29 @@
       <c r="M55" s="27"/>
       <c r="N55" s="27"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A56" s="61"/>
-      <c r="B56" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="58">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52"/>
+      <c r="B56" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="49">
         <v>2</v>
       </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+      <c r="E56" s="38">
+        <v>0</v>
+      </c>
+      <c r="F56" s="27">
+        <v>0</v>
+      </c>
+      <c r="G56" s="27">
+        <v>0</v>
+      </c>
+      <c r="H56" s="27">
+        <v>0</v>
+      </c>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
@@ -7286,21 +7909,29 @@
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A57" s="61"/>
-      <c r="B57" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="58">
-        <v>6</v>
-      </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="52"/>
+      <c r="B57" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="49">
+        <v>2</v>
+      </c>
+      <c r="E57" s="38">
+        <v>0</v>
+      </c>
+      <c r="F57" s="27">
+        <v>0</v>
+      </c>
+      <c r="G57" s="27">
+        <v>0</v>
+      </c>
+      <c r="H57" s="27">
+        <v>0</v>
+      </c>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
@@ -7308,21 +7939,29 @@
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="52"/>
+      <c r="B58" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="49">
+        <v>6</v>
+      </c>
+      <c r="E58" s="38">
+        <v>0</v>
+      </c>
+      <c r="F58" s="27">
+        <v>0</v>
+      </c>
+      <c r="G58" s="27">
+        <v>0</v>
+      </c>
+      <c r="H58" s="27">
+        <v>0</v>
+      </c>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
       <c r="K58" s="27"/>
@@ -7330,15 +7969,29 @@
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A59" s="61"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="52"/>
+      <c r="B59" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="49">
+        <v>1</v>
+      </c>
+      <c r="E59" s="38">
+        <v>0</v>
+      </c>
+      <c r="F59" s="27">
+        <v>0</v>
+      </c>
+      <c r="G59" s="27">
+        <v>0</v>
+      </c>
+      <c r="H59" s="27">
+        <v>0</v>
+      </c>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
@@ -7346,11 +7999,11 @@
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A60" s="61"/>
-      <c r="B60" s="38"/>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="52"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="27"/>
-      <c r="D60" s="58"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="38"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
@@ -7362,11 +8015,11 @@
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A61" s="61"/>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="52"/>
       <c r="B61" s="38"/>
       <c r="C61" s="27"/>
-      <c r="D61" s="58"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="38"/>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -7378,11 +8031,11 @@
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A62" s="61"/>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="52"/>
       <c r="B62" s="38"/>
       <c r="C62" s="27"/>
-      <c r="D62" s="58"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="38"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
@@ -7394,11 +8047,11 @@
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A63" s="61"/>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="52"/>
       <c r="B63" s="38"/>
       <c r="C63" s="27"/>
-      <c r="D63" s="58"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="38"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
@@ -7410,11 +8063,11 @@
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A64" s="61"/>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="52"/>
       <c r="B64" s="38"/>
       <c r="C64" s="27"/>
-      <c r="D64" s="58"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="38"/>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
@@ -7426,11 +8079,11 @@
       <c r="M64" s="27"/>
       <c r="N64" s="27"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A65" s="61"/>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="52"/>
       <c r="B65" s="38"/>
       <c r="C65" s="27"/>
-      <c r="D65" s="58"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="38"/>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
@@ -7442,11 +8095,11 @@
       <c r="M65" s="27"/>
       <c r="N65" s="27"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A66" s="61"/>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="52"/>
       <c r="B66" s="38"/>
       <c r="C66" s="27"/>
-      <c r="D66" s="58"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="38"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -7458,11 +8111,11 @@
       <c r="M66" s="27"/>
       <c r="N66" s="27"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A67" s="61"/>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="52"/>
       <c r="B67" s="38"/>
       <c r="C67" s="27"/>
-      <c r="D67" s="58"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="38"/>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -7474,11 +8127,11 @@
       <c r="M67" s="27"/>
       <c r="N67" s="27"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A68" s="61"/>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="52"/>
       <c r="B68" s="38"/>
       <c r="C68" s="27"/>
-      <c r="D68" s="58"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="38"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
@@ -7490,11 +8143,11 @@
       <c r="M68" s="27"/>
       <c r="N68" s="27"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A69" s="61"/>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="52"/>
       <c r="B69" s="38"/>
       <c r="C69" s="27"/>
-      <c r="D69" s="58"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="38"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
@@ -7506,11 +8159,11 @@
       <c r="M69" s="27"/>
       <c r="N69" s="27"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A70" s="61"/>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="52"/>
       <c r="B70" s="38"/>
       <c r="C70" s="27"/>
-      <c r="D70" s="58"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="38"/>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
@@ -7522,11 +8175,11 @@
       <c r="M70" s="27"/>
       <c r="N70" s="27"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A71" s="61"/>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="52"/>
       <c r="B71" s="38"/>
       <c r="C71" s="27"/>
-      <c r="D71" s="58"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="38"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
@@ -7538,11 +8191,11 @@
       <c r="M71" s="27"/>
       <c r="N71" s="27"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A72" s="61"/>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="52"/>
       <c r="B72" s="38"/>
       <c r="C72" s="27"/>
-      <c r="D72" s="58"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="38"/>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
@@ -7554,11 +8207,11 @@
       <c r="M72" s="27"/>
       <c r="N72" s="27"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="61"/>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="52"/>
       <c r="B73" s="38"/>
       <c r="C73" s="27"/>
-      <c r="D73" s="58"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="38"/>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
@@ -7570,11 +8223,11 @@
       <c r="M73" s="27"/>
       <c r="N73" s="27"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="61"/>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="52"/>
       <c r="B74" s="38"/>
       <c r="C74" s="27"/>
-      <c r="D74" s="58"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="38"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
@@ -7586,11 +8239,11 @@
       <c r="M74" s="27"/>
       <c r="N74" s="27"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="61"/>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="52"/>
       <c r="B75" s="38"/>
       <c r="C75" s="27"/>
-      <c r="D75" s="58"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="38"/>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
@@ -7602,11 +8255,11 @@
       <c r="M75" s="27"/>
       <c r="N75" s="27"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="61"/>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="52"/>
       <c r="B76" s="38"/>
       <c r="C76" s="27"/>
-      <c r="D76" s="58"/>
+      <c r="D76" s="49"/>
       <c r="E76" s="38"/>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
@@ -7618,11 +8271,11 @@
       <c r="M76" s="27"/>
       <c r="N76" s="27"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A77" s="61"/>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="52"/>
       <c r="B77" s="38"/>
       <c r="C77" s="27"/>
-      <c r="D77" s="58"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="38"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
@@ -7634,11 +8287,11 @@
       <c r="M77" s="27"/>
       <c r="N77" s="27"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A78" s="61"/>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="52"/>
       <c r="B78" s="38"/>
       <c r="C78" s="27"/>
-      <c r="D78" s="58"/>
+      <c r="D78" s="49"/>
       <c r="E78" s="38"/>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
@@ -7650,11 +8303,11 @@
       <c r="M78" s="27"/>
       <c r="N78" s="27"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A79" s="61"/>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="52"/>
       <c r="B79" s="38"/>
       <c r="C79" s="27"/>
-      <c r="D79" s="58"/>
+      <c r="D79" s="49"/>
       <c r="E79" s="38"/>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
@@ -7666,11 +8319,11 @@
       <c r="M79" s="27"/>
       <c r="N79" s="27"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A80" s="61"/>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="52"/>
       <c r="B80" s="38"/>
       <c r="C80" s="27"/>
-      <c r="D80" s="58"/>
+      <c r="D80" s="49"/>
       <c r="E80" s="38"/>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
@@ -7682,11 +8335,11 @@
       <c r="M80" s="27"/>
       <c r="N80" s="27"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="61"/>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="52"/>
       <c r="B81" s="38"/>
       <c r="C81" s="27"/>
-      <c r="D81" s="58"/>
+      <c r="D81" s="49"/>
       <c r="E81" s="38"/>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
@@ -7698,11 +8351,11 @@
       <c r="M81" s="27"/>
       <c r="N81" s="27"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A82" s="61"/>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="52"/>
       <c r="B82" s="38"/>
       <c r="C82" s="27"/>
-      <c r="D82" s="58"/>
+      <c r="D82" s="49"/>
       <c r="E82" s="38"/>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
@@ -7714,11 +8367,11 @@
       <c r="M82" s="27"/>
       <c r="N82" s="27"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A83" s="61"/>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="52"/>
       <c r="B83" s="38"/>
       <c r="C83" s="27"/>
-      <c r="D83" s="58"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="38"/>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
@@ -7730,11 +8383,11 @@
       <c r="M83" s="27"/>
       <c r="N83" s="27"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A84" s="61"/>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="52"/>
       <c r="B84" s="38"/>
       <c r="C84" s="27"/>
-      <c r="D84" s="58"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="38"/>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -7746,11 +8399,11 @@
       <c r="M84" s="27"/>
       <c r="N84" s="27"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A85" s="61"/>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="52"/>
       <c r="B85" s="38"/>
       <c r="C85" s="27"/>
-      <c r="D85" s="58"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="38"/>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
@@ -7762,11 +8415,11 @@
       <c r="M85" s="27"/>
       <c r="N85" s="27"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A86" s="61"/>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="52"/>
       <c r="B86" s="38"/>
       <c r="C86" s="27"/>
-      <c r="D86" s="58"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="38"/>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
@@ -7778,11 +8431,11 @@
       <c r="M86" s="27"/>
       <c r="N86" s="27"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A87" s="61"/>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="52"/>
       <c r="B87" s="38"/>
       <c r="C87" s="27"/>
-      <c r="D87" s="58"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="38"/>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
@@ -7794,11 +8447,11 @@
       <c r="M87" s="27"/>
       <c r="N87" s="27"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A88" s="61"/>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="52"/>
       <c r="B88" s="38"/>
       <c r="C88" s="27"/>
-      <c r="D88" s="58"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="38"/>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
@@ -7810,11 +8463,11 @@
       <c r="M88" s="27"/>
       <c r="N88" s="27"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A89" s="61"/>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="52"/>
       <c r="B89" s="38"/>
       <c r="C89" s="27"/>
-      <c r="D89" s="58"/>
+      <c r="D89" s="49"/>
       <c r="E89" s="38"/>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
@@ -7826,11 +8479,11 @@
       <c r="M89" s="27"/>
       <c r="N89" s="27"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A90" s="61"/>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="52"/>
       <c r="B90" s="38"/>
       <c r="C90" s="27"/>
-      <c r="D90" s="58"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="38"/>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
@@ -7842,11 +8495,11 @@
       <c r="M90" s="27"/>
       <c r="N90" s="27"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A91" s="61"/>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="52"/>
       <c r="B91" s="38"/>
       <c r="C91" s="27"/>
-      <c r="D91" s="58"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="38"/>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
@@ -7858,11 +8511,11 @@
       <c r="M91" s="27"/>
       <c r="N91" s="27"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A92" s="61"/>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="52"/>
       <c r="B92" s="38"/>
       <c r="C92" s="27"/>
-      <c r="D92" s="58"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="38"/>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
@@ -7874,11 +8527,11 @@
       <c r="M92" s="27"/>
       <c r="N92" s="27"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A93" s="61"/>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="52"/>
       <c r="B93" s="38"/>
       <c r="C93" s="27"/>
-      <c r="D93" s="58"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="38"/>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
@@ -7890,11 +8543,11 @@
       <c r="M93" s="27"/>
       <c r="N93" s="27"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A94" s="61"/>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="52"/>
       <c r="B94" s="38"/>
       <c r="C94" s="27"/>
-      <c r="D94" s="58"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="38"/>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
@@ -7906,11 +8559,11 @@
       <c r="M94" s="27"/>
       <c r="N94" s="27"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A95" s="61"/>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="52"/>
       <c r="B95" s="38"/>
       <c r="C95" s="27"/>
-      <c r="D95" s="58"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="38"/>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
@@ -7922,11 +8575,11 @@
       <c r="M95" s="27"/>
       <c r="N95" s="27"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A96" s="61"/>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="52"/>
       <c r="B96" s="38"/>
       <c r="C96" s="27"/>
-      <c r="D96" s="58"/>
+      <c r="D96" s="49"/>
       <c r="E96" s="38"/>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
@@ -7938,11 +8591,11 @@
       <c r="M96" s="27"/>
       <c r="N96" s="27"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A97" s="63"/>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="52"/>
       <c r="B97" s="38"/>
       <c r="C97" s="27"/>
-      <c r="D97" s="58"/>
+      <c r="D97" s="49"/>
       <c r="E97" s="38"/>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
@@ -7954,9 +8607,26 @@
       <c r="M97" s="27"/>
       <c r="N97" s="27"/>
     </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="54"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="27"/>
+      <c r="N98" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
